--- a/Screenshots/Add class Report.xlsx
+++ b/Screenshots/Add class Report.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="101">
   <si>
     <t>key</t>
   </si>
@@ -250,6 +250,85 @@
   </si>
   <si>
     <t>Tutor add class submitted successfully :[Class added successfully.]</t>
+  </si>
+  <si>
+    <t>./Screenshots/2022-11-15-16-28-36.png</t>
+  </si>
+  <si>
+    <t>16/11/2022</t>
+  </si>
+  <si>
+    <t>D:\test\picturesprofile1\bharat3.jpg</t>
+  </si>
+  <si>
+    <t>./Screenshots/2022-11-15-16-33-29.png</t>
+  </si>
+  <si>
+    <t>./Screenshots/2022-11-15-16-35-30.png</t>
+  </si>
+  <si>
+    <t>Tutor add class has error : stale element reference: element is not attached to the page document
+  (Session info: chrome=107.0.5304.107)
+For documentation on this error, please visit: https://www.seleniumhq.org/exceptions/stale_element_reference.html
+Build info: version: '3.141.59', revision: 'e82be7d358', time: '2018-11-14T08:25:53'
+System info: host: 'LAPTOP-A5ODB7KC', ip: '192.168.137.1', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_282'
+Driver info: com.kms.katalon.selenium.driver.CChromeDriver
+Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 107.0.5304.107, chrome: {chromedriverVersion: 107.0.5304.62 (1eec40d3a576..., userDataDir: C:\Users\Srinivas\AppData\L...}, goog:chromeOptions: {debuggerAddress: localhost:60665}, javascriptEnabled: true, networkConnectionEnabled: false, pageLoadStrategy: normal, platform: WINDOWS, platformName: WINDOWS, proxy: Proxy(), setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:virtualAuthenticators: true}
+Session ID: fd215f62ad7c00038f0515408271d41c</t>
+  </si>
+  <si>
+    <t>tutor54@nkt.com</t>
+  </si>
+  <si>
+    <t>Draw 2</t>
+  </si>
+  <si>
+    <t>Mudaliarpet</t>
+  </si>
+  <si>
+    <t>GHJ56GHJK58</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>mv class special 16/11 - 31/12</t>
+  </si>
+  <si>
+    <t>./Screenshots/2022-11-15-17-42-48.png</t>
+  </si>
+  <si>
+    <t>./Screenshots/2022-11-15-17-44-29.png</t>
+  </si>
+  <si>
+    <t>Oil Painting</t>
+  </si>
+  <si>
+    <t>friday</t>
+  </si>
+  <si>
+    <t>17/11/2022</t>
+  </si>
+  <si>
+    <t>sess class special 17/11 - 31/12</t>
+  </si>
+  <si>
+    <t>./Screenshots/2022-11-16-11-14-34.png</t>
+  </si>
+  <si>
+    <t>./Screenshots/2022-11-16-11-16-26.png</t>
+  </si>
+  <si>
+    <t>Tutor add class submission has error :[]</t>
+  </si>
+  <si>
+    <t>Oil Painting1</t>
+  </si>
+  <si>
+    <t>./Screenshots/2022-11-16-18-01-25.png</t>
+  </si>
+  <si>
+    <t>./Screenshots/2022-11-16-18-03-30.png</t>
   </si>
 </sst>
 </file>
@@ -257,7 +336,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -295,8 +374,62 @@
       <i val="true"/>
       <color indexed="12"/>
     </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <i val="true"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <i val="true"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <i val="true"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <i val="true"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <i val="true"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <i val="true"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <i val="true"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <i val="true"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <i val="true"/>
+      <color indexed="12"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="26">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -331,6 +464,96 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
       </patternFill>
     </fill>
   </fills>
@@ -346,7 +569,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="28">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
     <xf applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
@@ -355,8 +578,26 @@
     <xf applyFont="1" borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0"/>
     <xf applyFill="true" borderId="0" fillId="5" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyFont="true" borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf applyFill="true" borderId="0" fillId="7" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="9" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="11" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="13" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="15" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="17" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="19" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="11" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="21" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="12" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="23" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="13" numFmtId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" name="Normal" xfId="0"/>
@@ -637,7 +878,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AL5"/>
+  <dimension ref="A1:AL14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="I2" sqref="I2"/>
@@ -659,7 +900,7 @@
     <col min="12" max="12" bestFit="true" customWidth="true" width="7.33984375" collapsed="true"/>
     <col min="13" max="13" bestFit="true" customWidth="true" width="18.2109375" collapsed="true"/>
     <col min="14" max="14" bestFit="true" customWidth="true" width="19.38671875" collapsed="true"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" width="10.75390625" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="12.1015625" collapsed="true"/>
     <col min="16" max="16" bestFit="true" customWidth="true" width="19.45703125" collapsed="true"/>
     <col min="17" max="17" bestFit="true" customWidth="true" width="14.8046875" collapsed="true"/>
     <col min="18" max="18" bestFit="true" customWidth="true" width="22.70703125" collapsed="true"/>
@@ -677,9 +918,9 @@
     <col min="30" max="30" bestFit="true" customWidth="true" width="61.3984375" collapsed="true"/>
     <col min="31" max="31" bestFit="true" customWidth="true" width="40.3671875" collapsed="true"/>
     <col min="32" max="32" bestFit="true" customWidth="true" width="7.109375" collapsed="true"/>
-    <col min="33" max="33" bestFit="true" customWidth="true" width="27.8828125" collapsed="true"/>
+    <col min="33" max="33" bestFit="true" customWidth="true" width="28.8046875" collapsed="true"/>
     <col min="35" max="35" bestFit="true" customWidth="true" width="40.25390625" collapsed="true"/>
-    <col min="36" max="36" bestFit="true" customWidth="true" width="59.75390625" collapsed="true"/>
+    <col min="36" max="36" bestFit="true" customWidth="true" width="255.0" collapsed="true"/>
     <col min="37" max="37" bestFit="true" customWidth="true" width="9.30078125" collapsed="true"/>
   </cols>
   <sheetData>
@@ -1223,14 +1464,1004 @@
       <c r="AG5" t="s">
         <v>65</v>
       </c>
-      <c r="AI5" t="s" s="9">
+      <c r="AI5" s="9" t="s">
         <v>75</v>
       </c>
       <c r="AJ5" t="s">
         <v>76</v>
       </c>
-      <c r="AK5" t="s" s="8">
+      <c r="AK5" s="8" t="s">
         <v>66</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C6" t="s">
+        <v>38</v>
+      </c>
+      <c r="D6" t="s">
+        <v>39</v>
+      </c>
+      <c r="E6" t="s">
+        <v>40</v>
+      </c>
+      <c r="F6" t="s">
+        <v>41</v>
+      </c>
+      <c r="G6" t="s">
+        <v>41</v>
+      </c>
+      <c r="H6" t="s">
+        <v>42</v>
+      </c>
+      <c r="I6" t="s">
+        <v>73</v>
+      </c>
+      <c r="J6" t="s">
+        <v>44</v>
+      </c>
+      <c r="K6" t="s">
+        <v>45</v>
+      </c>
+      <c r="L6" t="s">
+        <v>46</v>
+      </c>
+      <c r="M6" t="s">
+        <v>47</v>
+      </c>
+      <c r="N6" t="s">
+        <v>48</v>
+      </c>
+      <c r="O6" t="s">
+        <v>49</v>
+      </c>
+      <c r="P6" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>51</v>
+      </c>
+      <c r="R6" t="s">
+        <v>52</v>
+      </c>
+      <c r="S6" t="s">
+        <v>53</v>
+      </c>
+      <c r="T6" t="s">
+        <v>41</v>
+      </c>
+      <c r="U6" t="s">
+        <v>54</v>
+      </c>
+      <c r="V6" t="s">
+        <v>41</v>
+      </c>
+      <c r="W6" t="s">
+        <v>55</v>
+      </c>
+      <c r="X6" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>57</v>
+      </c>
+      <c r="Z6" t="s">
+        <v>58</v>
+      </c>
+      <c r="AA6" t="s">
+        <v>59</v>
+      </c>
+      <c r="AB6" t="s">
+        <v>60</v>
+      </c>
+      <c r="AC6" t="s">
+        <v>61</v>
+      </c>
+      <c r="AD6" t="s">
+        <v>62</v>
+      </c>
+      <c r="AE6" t="s">
+        <v>63</v>
+      </c>
+      <c r="AF6" t="s">
+        <v>64</v>
+      </c>
+      <c r="AG6" t="s">
+        <v>65</v>
+      </c>
+      <c r="AI6" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="AJ6" t="s">
+        <v>68</v>
+      </c>
+      <c r="AK6" s="10" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D7" t="s">
+        <v>39</v>
+      </c>
+      <c r="E7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F7" t="s">
+        <v>41</v>
+      </c>
+      <c r="G7" t="s">
+        <v>41</v>
+      </c>
+      <c r="H7" t="s">
+        <v>42</v>
+      </c>
+      <c r="I7" t="s">
+        <v>73</v>
+      </c>
+      <c r="J7" t="s">
+        <v>44</v>
+      </c>
+      <c r="K7" t="s">
+        <v>45</v>
+      </c>
+      <c r="L7" t="s">
+        <v>46</v>
+      </c>
+      <c r="M7" t="s">
+        <v>47</v>
+      </c>
+      <c r="N7" t="s">
+        <v>48</v>
+      </c>
+      <c r="O7" t="s">
+        <v>49</v>
+      </c>
+      <c r="P7" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>51</v>
+      </c>
+      <c r="R7" t="s">
+        <v>52</v>
+      </c>
+      <c r="S7" t="s">
+        <v>53</v>
+      </c>
+      <c r="T7" t="s">
+        <v>41</v>
+      </c>
+      <c r="U7" t="s">
+        <v>54</v>
+      </c>
+      <c r="V7" t="s">
+        <v>41</v>
+      </c>
+      <c r="W7" t="s">
+        <v>55</v>
+      </c>
+      <c r="X7" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>78</v>
+      </c>
+      <c r="Z7" t="s">
+        <v>58</v>
+      </c>
+      <c r="AA7" t="s">
+        <v>59</v>
+      </c>
+      <c r="AB7" t="s">
+        <v>60</v>
+      </c>
+      <c r="AC7" t="s">
+        <v>61</v>
+      </c>
+      <c r="AD7" t="s">
+        <v>62</v>
+      </c>
+      <c r="AE7" t="s">
+        <v>79</v>
+      </c>
+      <c r="AF7" t="s">
+        <v>64</v>
+      </c>
+      <c r="AG7" t="s">
+        <v>65</v>
+      </c>
+      <c r="AI7" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="AJ7" t="s">
+        <v>68</v>
+      </c>
+      <c r="AK7" s="12" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>36</v>
+      </c>
+      <c r="B8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C8" t="s">
+        <v>38</v>
+      </c>
+      <c r="D8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E8" t="s">
+        <v>40</v>
+      </c>
+      <c r="F8" t="s">
+        <v>41</v>
+      </c>
+      <c r="G8" t="s">
+        <v>41</v>
+      </c>
+      <c r="H8" t="s">
+        <v>42</v>
+      </c>
+      <c r="I8" t="s">
+        <v>73</v>
+      </c>
+      <c r="J8" t="s">
+        <v>44</v>
+      </c>
+      <c r="K8" t="s">
+        <v>45</v>
+      </c>
+      <c r="L8" t="s">
+        <v>46</v>
+      </c>
+      <c r="M8" t="s">
+        <v>47</v>
+      </c>
+      <c r="N8" t="s">
+        <v>48</v>
+      </c>
+      <c r="O8" t="s">
+        <v>49</v>
+      </c>
+      <c r="P8" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>51</v>
+      </c>
+      <c r="R8" t="s">
+        <v>52</v>
+      </c>
+      <c r="S8" t="s">
+        <v>53</v>
+      </c>
+      <c r="T8" t="s">
+        <v>41</v>
+      </c>
+      <c r="U8" t="s">
+        <v>54</v>
+      </c>
+      <c r="V8" t="s">
+        <v>41</v>
+      </c>
+      <c r="W8" t="s">
+        <v>55</v>
+      </c>
+      <c r="X8" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>78</v>
+      </c>
+      <c r="Z8" t="s">
+        <v>58</v>
+      </c>
+      <c r="AA8" t="s">
+        <v>59</v>
+      </c>
+      <c r="AB8" t="s">
+        <v>60</v>
+      </c>
+      <c r="AC8" t="s">
+        <v>61</v>
+      </c>
+      <c r="AD8" t="s">
+        <v>62</v>
+      </c>
+      <c r="AE8" t="s">
+        <v>79</v>
+      </c>
+      <c r="AF8" t="s">
+        <v>64</v>
+      </c>
+      <c r="AG8" t="s">
+        <v>65</v>
+      </c>
+      <c r="AI8" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="AJ8" t="s">
+        <v>82</v>
+      </c>
+      <c r="AK8" s="14" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>36</v>
+      </c>
+      <c r="B9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C9" t="s">
+        <v>38</v>
+      </c>
+      <c r="D9" t="s">
+        <v>83</v>
+      </c>
+      <c r="E9" t="s">
+        <v>40</v>
+      </c>
+      <c r="F9" t="s">
+        <v>41</v>
+      </c>
+      <c r="G9" t="s">
+        <v>41</v>
+      </c>
+      <c r="H9" t="s">
+        <v>42</v>
+      </c>
+      <c r="I9" t="s">
+        <v>84</v>
+      </c>
+      <c r="J9" t="s">
+        <v>44</v>
+      </c>
+      <c r="K9" t="s">
+        <v>45</v>
+      </c>
+      <c r="L9" t="s">
+        <v>46</v>
+      </c>
+      <c r="M9" t="s">
+        <v>47</v>
+      </c>
+      <c r="N9" t="s">
+        <v>48</v>
+      </c>
+      <c r="O9" t="s">
+        <v>85</v>
+      </c>
+      <c r="P9" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>51</v>
+      </c>
+      <c r="R9" t="s">
+        <v>52</v>
+      </c>
+      <c r="S9" t="s">
+        <v>53</v>
+      </c>
+      <c r="T9" t="s">
+        <v>41</v>
+      </c>
+      <c r="U9" t="s">
+        <v>54</v>
+      </c>
+      <c r="V9" t="s">
+        <v>41</v>
+      </c>
+      <c r="W9" t="s">
+        <v>55</v>
+      </c>
+      <c r="X9" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>78</v>
+      </c>
+      <c r="Z9" t="s">
+        <v>58</v>
+      </c>
+      <c r="AA9" t="s">
+        <v>59</v>
+      </c>
+      <c r="AB9" t="s">
+        <v>86</v>
+      </c>
+      <c r="AC9" t="s">
+        <v>61</v>
+      </c>
+      <c r="AD9" t="s">
+        <v>62</v>
+      </c>
+      <c r="AE9" t="s">
+        <v>79</v>
+      </c>
+      <c r="AF9" t="s">
+        <v>87</v>
+      </c>
+      <c r="AG9" t="s">
+        <v>88</v>
+      </c>
+      <c r="AI9" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="AJ9" t="s">
+        <v>68</v>
+      </c>
+      <c r="AK9" s="16" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>36</v>
+      </c>
+      <c r="B10" t="s">
+        <v>37</v>
+      </c>
+      <c r="C10" t="s">
+        <v>38</v>
+      </c>
+      <c r="D10" t="s">
+        <v>83</v>
+      </c>
+      <c r="E10" t="s">
+        <v>40</v>
+      </c>
+      <c r="F10" t="s">
+        <v>41</v>
+      </c>
+      <c r="G10" t="s">
+        <v>41</v>
+      </c>
+      <c r="H10" t="s">
+        <v>42</v>
+      </c>
+      <c r="I10" t="s">
+        <v>84</v>
+      </c>
+      <c r="J10" t="s">
+        <v>44</v>
+      </c>
+      <c r="K10" t="s">
+        <v>45</v>
+      </c>
+      <c r="L10" t="s">
+        <v>46</v>
+      </c>
+      <c r="M10" t="s">
+        <v>47</v>
+      </c>
+      <c r="N10" t="s">
+        <v>48</v>
+      </c>
+      <c r="O10" t="s">
+        <v>85</v>
+      </c>
+      <c r="P10" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>51</v>
+      </c>
+      <c r="R10" t="s">
+        <v>52</v>
+      </c>
+      <c r="S10" t="s">
+        <v>53</v>
+      </c>
+      <c r="T10" t="s">
+        <v>41</v>
+      </c>
+      <c r="U10" t="s">
+        <v>54</v>
+      </c>
+      <c r="V10" t="s">
+        <v>41</v>
+      </c>
+      <c r="W10" t="s">
+        <v>55</v>
+      </c>
+      <c r="X10" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>78</v>
+      </c>
+      <c r="Z10" t="s">
+        <v>58</v>
+      </c>
+      <c r="AA10" t="s">
+        <v>59</v>
+      </c>
+      <c r="AB10" t="s">
+        <v>86</v>
+      </c>
+      <c r="AC10" t="s">
+        <v>61</v>
+      </c>
+      <c r="AD10" t="s">
+        <v>62</v>
+      </c>
+      <c r="AE10" t="s">
+        <v>79</v>
+      </c>
+      <c r="AF10" t="s">
+        <v>87</v>
+      </c>
+      <c r="AG10" t="s">
+        <v>88</v>
+      </c>
+      <c r="AI10" s="19" t="s">
+        <v>90</v>
+      </c>
+      <c r="AJ10" t="s">
+        <v>76</v>
+      </c>
+      <c r="AK10" s="18" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>36</v>
+      </c>
+      <c r="B11" t="s">
+        <v>37</v>
+      </c>
+      <c r="C11" t="s">
+        <v>38</v>
+      </c>
+      <c r="D11" t="s">
+        <v>83</v>
+      </c>
+      <c r="E11" t="s">
+        <v>40</v>
+      </c>
+      <c r="F11" t="s">
+        <v>41</v>
+      </c>
+      <c r="G11" t="s">
+        <v>41</v>
+      </c>
+      <c r="H11" t="s">
+        <v>42</v>
+      </c>
+      <c r="I11" t="s">
+        <v>91</v>
+      </c>
+      <c r="J11" t="s">
+        <v>44</v>
+      </c>
+      <c r="K11" t="s">
+        <v>45</v>
+      </c>
+      <c r="L11" t="s">
+        <v>46</v>
+      </c>
+      <c r="M11" t="s">
+        <v>47</v>
+      </c>
+      <c r="N11" t="s">
+        <v>48</v>
+      </c>
+      <c r="O11" t="s">
+        <v>85</v>
+      </c>
+      <c r="P11" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>51</v>
+      </c>
+      <c r="R11" t="s">
+        <v>52</v>
+      </c>
+      <c r="S11" t="s">
+        <v>53</v>
+      </c>
+      <c r="T11" t="s">
+        <v>41</v>
+      </c>
+      <c r="U11" t="s">
+        <v>92</v>
+      </c>
+      <c r="V11" t="s">
+        <v>41</v>
+      </c>
+      <c r="W11" t="s">
+        <v>55</v>
+      </c>
+      <c r="X11" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>93</v>
+      </c>
+      <c r="Z11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AA11" t="s">
+        <v>59</v>
+      </c>
+      <c r="AB11" t="s">
+        <v>86</v>
+      </c>
+      <c r="AC11" t="s">
+        <v>61</v>
+      </c>
+      <c r="AD11" t="s">
+        <v>62</v>
+      </c>
+      <c r="AE11" t="s">
+        <v>79</v>
+      </c>
+      <c r="AF11" t="s">
+        <v>87</v>
+      </c>
+      <c r="AG11" t="s">
+        <v>94</v>
+      </c>
+      <c r="AI11" s="21" t="s">
+        <v>95</v>
+      </c>
+      <c r="AJ11" t="s">
+        <v>68</v>
+      </c>
+      <c r="AK11" s="20" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>36</v>
+      </c>
+      <c r="B12" t="s">
+        <v>37</v>
+      </c>
+      <c r="C12" t="s">
+        <v>38</v>
+      </c>
+      <c r="D12" t="s">
+        <v>83</v>
+      </c>
+      <c r="E12" t="s">
+        <v>40</v>
+      </c>
+      <c r="F12" t="s">
+        <v>41</v>
+      </c>
+      <c r="G12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H12" t="s">
+        <v>42</v>
+      </c>
+      <c r="I12" t="s">
+        <v>91</v>
+      </c>
+      <c r="J12" t="s">
+        <v>44</v>
+      </c>
+      <c r="K12" t="s">
+        <v>45</v>
+      </c>
+      <c r="L12" t="s">
+        <v>46</v>
+      </c>
+      <c r="M12" t="s">
+        <v>47</v>
+      </c>
+      <c r="N12" t="s">
+        <v>48</v>
+      </c>
+      <c r="O12" t="s">
+        <v>85</v>
+      </c>
+      <c r="P12" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>51</v>
+      </c>
+      <c r="R12" t="s">
+        <v>52</v>
+      </c>
+      <c r="S12" t="s">
+        <v>53</v>
+      </c>
+      <c r="T12" t="s">
+        <v>41</v>
+      </c>
+      <c r="U12" t="s">
+        <v>92</v>
+      </c>
+      <c r="V12" t="s">
+        <v>41</v>
+      </c>
+      <c r="W12" t="s">
+        <v>55</v>
+      </c>
+      <c r="X12" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>93</v>
+      </c>
+      <c r="Z12" t="s">
+        <v>58</v>
+      </c>
+      <c r="AA12" t="s">
+        <v>59</v>
+      </c>
+      <c r="AB12" t="s">
+        <v>86</v>
+      </c>
+      <c r="AC12" t="s">
+        <v>61</v>
+      </c>
+      <c r="AD12" t="s">
+        <v>62</v>
+      </c>
+      <c r="AE12" t="s">
+        <v>79</v>
+      </c>
+      <c r="AF12" t="s">
+        <v>87</v>
+      </c>
+      <c r="AG12" t="s">
+        <v>94</v>
+      </c>
+      <c r="AI12" s="23" t="s">
+        <v>96</v>
+      </c>
+      <c r="AJ12" t="s">
+        <v>97</v>
+      </c>
+      <c r="AK12" s="22" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>36</v>
+      </c>
+      <c r="B13" t="s">
+        <v>37</v>
+      </c>
+      <c r="C13" t="s">
+        <v>38</v>
+      </c>
+      <c r="D13" t="s">
+        <v>83</v>
+      </c>
+      <c r="E13" t="s">
+        <v>40</v>
+      </c>
+      <c r="F13" t="s">
+        <v>41</v>
+      </c>
+      <c r="G13" t="s">
+        <v>41</v>
+      </c>
+      <c r="H13" t="s">
+        <v>42</v>
+      </c>
+      <c r="I13" t="s">
+        <v>98</v>
+      </c>
+      <c r="J13" t="s">
+        <v>44</v>
+      </c>
+      <c r="K13" t="s">
+        <v>45</v>
+      </c>
+      <c r="L13" t="s">
+        <v>46</v>
+      </c>
+      <c r="M13" t="s">
+        <v>47</v>
+      </c>
+      <c r="N13" t="s">
+        <v>48</v>
+      </c>
+      <c r="O13" t="s">
+        <v>85</v>
+      </c>
+      <c r="P13" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>51</v>
+      </c>
+      <c r="R13" t="s">
+        <v>52</v>
+      </c>
+      <c r="S13" t="s">
+        <v>53</v>
+      </c>
+      <c r="T13" t="s">
+        <v>41</v>
+      </c>
+      <c r="U13" t="s">
+        <v>92</v>
+      </c>
+      <c r="V13" t="s">
+        <v>41</v>
+      </c>
+      <c r="W13" t="s">
+        <v>55</v>
+      </c>
+      <c r="X13" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>93</v>
+      </c>
+      <c r="Z13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AA13" t="s">
+        <v>59</v>
+      </c>
+      <c r="AB13" t="s">
+        <v>86</v>
+      </c>
+      <c r="AC13" t="s">
+        <v>61</v>
+      </c>
+      <c r="AD13" t="s">
+        <v>62</v>
+      </c>
+      <c r="AE13" t="s">
+        <v>79</v>
+      </c>
+      <c r="AF13" t="s">
+        <v>87</v>
+      </c>
+      <c r="AG13" t="s">
+        <v>94</v>
+      </c>
+      <c r="AI13" s="25" t="s">
+        <v>99</v>
+      </c>
+      <c r="AJ13" t="s">
+        <v>68</v>
+      </c>
+      <c r="AK13" s="24" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>36</v>
+      </c>
+      <c r="B14" t="s">
+        <v>37</v>
+      </c>
+      <c r="C14" t="s">
+        <v>38</v>
+      </c>
+      <c r="D14" t="s">
+        <v>83</v>
+      </c>
+      <c r="E14" t="s">
+        <v>40</v>
+      </c>
+      <c r="F14" t="s">
+        <v>41</v>
+      </c>
+      <c r="G14" t="s">
+        <v>41</v>
+      </c>
+      <c r="H14" t="s">
+        <v>42</v>
+      </c>
+      <c r="I14" t="s">
+        <v>98</v>
+      </c>
+      <c r="J14" t="s">
+        <v>44</v>
+      </c>
+      <c r="K14" t="s">
+        <v>45</v>
+      </c>
+      <c r="L14" t="s">
+        <v>46</v>
+      </c>
+      <c r="M14" t="s">
+        <v>47</v>
+      </c>
+      <c r="N14" t="s">
+        <v>48</v>
+      </c>
+      <c r="O14" t="s">
+        <v>85</v>
+      </c>
+      <c r="P14" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>51</v>
+      </c>
+      <c r="R14" t="s">
+        <v>52</v>
+      </c>
+      <c r="S14" t="s">
+        <v>53</v>
+      </c>
+      <c r="T14" t="s">
+        <v>41</v>
+      </c>
+      <c r="U14" t="s">
+        <v>92</v>
+      </c>
+      <c r="V14" t="s">
+        <v>41</v>
+      </c>
+      <c r="W14" t="s">
+        <v>55</v>
+      </c>
+      <c r="X14" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>93</v>
+      </c>
+      <c r="Z14" t="s">
+        <v>58</v>
+      </c>
+      <c r="AA14" t="s">
+        <v>59</v>
+      </c>
+      <c r="AB14" t="s">
+        <v>86</v>
+      </c>
+      <c r="AC14" t="s">
+        <v>61</v>
+      </c>
+      <c r="AD14" t="s">
+        <v>62</v>
+      </c>
+      <c r="AE14" t="s">
+        <v>79</v>
+      </c>
+      <c r="AF14" t="s">
+        <v>87</v>
+      </c>
+      <c r="AG14" t="s">
+        <v>94</v>
+      </c>
+      <c r="AI14" t="s" s="27">
+        <v>100</v>
+      </c>
+      <c r="AJ14" t="s">
+        <v>97</v>
+      </c>
+      <c r="AK14" t="s" s="26">
+        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -1238,7 +2469,16 @@
     <hyperlink r:id="rId1" ref="AI2"/>
     <hyperlink r:id="rId2" ref="AI3"/>
     <hyperlink r:id="rId3" ref="AI4"/>
-    <hyperlink ref="AI5" r:id="rId4"/>
+    <hyperlink r:id="rId4" ref="AI5"/>
+    <hyperlink r:id="rId5" ref="AI6"/>
+    <hyperlink r:id="rId6" ref="AI7"/>
+    <hyperlink r:id="rId7" ref="AI8"/>
+    <hyperlink r:id="rId8" ref="AI9"/>
+    <hyperlink r:id="rId9" ref="AI10"/>
+    <hyperlink r:id="rId10" ref="AI11"/>
+    <hyperlink r:id="rId11" ref="AI12"/>
+    <hyperlink r:id="rId12" ref="AI13"/>
+    <hyperlink ref="AI14" r:id="rId13"/>
   </hyperlinks>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/Screenshots/Add class Report.xlsx
+++ b/Screenshots/Add class Report.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="87">
   <si>
     <t>key</t>
   </si>
@@ -137,22 +137,22 @@
     <t>n</t>
   </si>
   <si>
-    <t>tutor55@nkt.com</t>
+    <t>tutor53@nkt.com</t>
   </si>
   <si>
     <t>Admin@123</t>
   </si>
   <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>Painting</t>
-  </si>
-  <si>
-    <t>paint var 20</t>
-  </si>
-  <si>
-    <t>individual</t>
+    <t>0</t>
+  </si>
+  <si>
+    <t>Clarinet</t>
+  </si>
+  <si>
+    <t>PHP session multi 1</t>
+  </si>
+  <si>
+    <t>bus</t>
   </si>
   <si>
     <t>group</t>
@@ -161,16 +161,16 @@
     <t>10</t>
   </si>
   <si>
-    <t>Expert</t>
+    <t>Beginner</t>
   </si>
   <si>
     <t>online</t>
   </si>
   <si>
-    <t>jimper</t>
-  </si>
-  <si>
-    <t>0</t>
+    <t>Mudaliarpet</t>
+  </si>
+  <si>
+    <t>1</t>
   </si>
   <si>
     <t>2,5</t>
@@ -182,28 +182,25 @@
     <t>Every week</t>
   </si>
   <si>
-    <t>wednesday</t>
-  </si>
-  <si>
-    <t>60</t>
-  </si>
-  <si>
-    <t>07:00 pm</t>
-  </si>
-  <si>
-    <t>08:00 pm</t>
-  </si>
-  <si>
-    <t>07/12/2022</t>
-  </si>
-  <si>
-    <t>31/12/2022</t>
+    <t>Saturday,Wednesday,Tuesday</t>
+  </si>
+  <si>
+    <t>04:00 pm</t>
+  </si>
+  <si>
+    <t>05:00 pm</t>
+  </si>
+  <si>
+    <t>08/12/2022</t>
+  </si>
+  <si>
+    <t>31/01/2023</t>
   </si>
   <si>
     <t>https://support.zoom.us/hc/en-us/articles/201362843-What-is-Personal-Meeting-ID-PMI-and-Personal-Link-</t>
   </si>
   <si>
-    <t>GHJ56GHJK69</t>
+    <t>GHJ56GHJK58</t>
   </si>
   <si>
     <t>https://test.nurtem.com/Packages/singleproduct/15/edwin-package-6th-grade</t>
@@ -218,32 +215,64 @@
     <t>4</t>
   </si>
   <si>
-    <t>var class special 01/12 - 31/12</t>
+    <t>sess class special 29/11 - 31/12</t>
   </si>
   <si>
     <t/>
   </si>
   <si>
-    <t>Wednesday | 7:00 pm to 8:00 pm</t>
-  </si>
-  <si>
-    <t>Jaya S.</t>
-  </si>
-  <si>
-    <t>d</t>
-  </si>
-  <si>
     <t>Passed</t>
   </si>
   <si>
-    <t>./Screenshots/2022-12-06-18-08-52.png</t>
-  </si>
-  <si>
-    <t>Tutor Login Form submitted succesfully :[Success
-Provider login successfully.]</t>
-  </si>
-  <si>
-    <t>./Screenshots/2022-12-06-18-12-41.png</t>
+    <t>./Screenshots/2022-12-07-15-07-51.png</t>
+  </si>
+  <si>
+    <t>Tutor Login Form submitted succesfully :[]</t>
+  </si>
+  <si>
+    <t>Failed</t>
+  </si>
+  <si>
+    <t>./Screenshots/2022-12-07-15-10-27.png</t>
+  </si>
+  <si>
+    <t>Tutor add class submission has error :[Description is required.]</t>
+  </si>
+  <si>
+    <t>D:\test\picturesprofile1\baseball1.jpg</t>
+  </si>
+  <si>
+    <t>./Screenshots/2022-12-07-15-13-09.png</t>
+  </si>
+  <si>
+    <t>./Screenshots/2022-12-07-15-16-02.png</t>
+  </si>
+  <si>
+    <t>Tutor add class submission has error :[]</t>
+  </si>
+  <si>
+    <t>PHP session 4</t>
+  </si>
+  <si>
+    <t>monday</t>
+  </si>
+  <si>
+    <t>10/12/2022</t>
+  </si>
+  <si>
+    <t>./Screenshots/2022-12-09-11-18-27.png</t>
+  </si>
+  <si>
+    <t>./Screenshots/2022-12-09-11-20-16.png</t>
+  </si>
+  <si>
+    <t>D:\test\picturesprofile1\bharat3.jpg</t>
+  </si>
+  <si>
+    <t>./Screenshots/2022-12-09-11-22-19.png</t>
+  </si>
+  <si>
+    <t>./Screenshots/2022-12-09-11-24-16.png</t>
   </si>
 </sst>
 </file>
@@ -251,7 +280,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="4">
+  <fonts count="10">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
@@ -277,8 +306,44 @@
       <i val="true"/>
       <color indexed="12"/>
     </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <i val="true"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <i val="true"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <i val="true"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <i val="true"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <i val="true"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <i val="true"/>
+      <color indexed="12"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="18">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -297,12 +362,72 @@
     </fill>
     <fill>
       <patternFill patternType="none">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
         <fgColor indexed="42"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
       </patternFill>
     </fill>
   </fills>
@@ -318,64 +443,76 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="18">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyFont="true" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
     <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyFont="true" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf applyFill="true" borderId="0" fillId="5" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="7" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="9" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="11" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="13" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="15" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AO3"/>
+  <dimension ref="A1:AO9"/>
   <sheetViews>
     <sheetView tabSelected="true" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="9.70703125" collapsed="false"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="5.94140625" collapsed="false"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="13.375" collapsed="false"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="17.0859375" collapsed="false"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="12.55078125" collapsed="false"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="15.02734375" collapsed="false"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="17.88671875" collapsed="false"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="18.39453125" collapsed="false"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="14.78515625" collapsed="false"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="12.49609375" collapsed="false"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="17.8984375" collapsed="false"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="7.33984375" collapsed="false"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="18.2109375" collapsed="false"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="19.38671875" collapsed="false"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" width="10.75390625" collapsed="false"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" width="19.45703125" collapsed="false"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" width="14.8046875" collapsed="false"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" width="22.70703125" collapsed="false"/>
-    <col min="19" max="19" bestFit="true" customWidth="true" width="19.91796875" collapsed="false"/>
-    <col min="20" max="20" bestFit="true" customWidth="true" width="16.984375" collapsed="false"/>
-    <col min="21" max="21" bestFit="true" customWidth="true" width="11.390625" collapsed="false"/>
-    <col min="22" max="22" bestFit="true" customWidth="true" width="14.9375" collapsed="false"/>
-    <col min="23" max="23" bestFit="true" customWidth="true" width="15.390625" collapsed="false"/>
-    <col min="24" max="24" bestFit="true" customWidth="true" width="13.4375" collapsed="false"/>
-    <col min="25" max="25" bestFit="true" customWidth="true" width="12.41796875" collapsed="false"/>
-    <col min="26" max="26" bestFit="true" customWidth="true" width="98.35546875" collapsed="false"/>
-    <col min="27" max="27" bestFit="true" customWidth="true" width="13.55859375" collapsed="false"/>
-    <col min="28" max="28" bestFit="true" customWidth="true" width="71.98046875" collapsed="false"/>
-    <col min="29" max="29" bestFit="true" customWidth="true" width="61.3984375" collapsed="false"/>
-    <col min="30" max="30" bestFit="true" customWidth="true" width="40.96484375" collapsed="false"/>
-    <col min="31" max="31" bestFit="true" customWidth="true" width="7.109375" collapsed="false"/>
-    <col min="32" max="32" bestFit="true" customWidth="true" width="27.9453125" collapsed="false"/>
-    <col min="33" max="33" bestFit="true" customWidth="true" width="16.36328125" collapsed="false"/>
-    <col min="34" max="34" bestFit="true" customWidth="true" width="31.1484375" collapsed="false"/>
-    <col min="35" max="35" bestFit="true" customWidth="true" width="15.25390625" collapsed="false"/>
-    <col min="36" max="36" bestFit="true" customWidth="true" width="13.73046875" collapsed="false"/>
-    <col min="38" max="38" bestFit="true" customWidth="true" width="40.25390625" collapsed="false"/>
-    <col min="39" max="39" bestFit="true" customWidth="true" width="44.8203125" collapsed="false"/>
-    <col min="40" max="40" bestFit="true" customWidth="true" width="9.30078125" collapsed="false"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="9.70703125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="5.94140625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="13.375" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="17.0859375" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="12.55078125" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="15.02734375" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="17.88671875" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="18.39453125" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="18.44140625" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="12.49609375" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="17.8984375" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="7.33984375" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="18.2109375" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="19.38671875" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="12.1015625" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="19.45703125" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="14.8046875" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="22.70703125" collapsed="true"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" width="19.91796875" collapsed="true"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="27.9765625" collapsed="true"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" width="11.390625" collapsed="true"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" width="14.9375" collapsed="true"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" width="15.390625" collapsed="true"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" width="13.4375" collapsed="true"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" width="12.41796875" collapsed="true"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" width="98.35546875" collapsed="true"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" width="13.55859375" collapsed="true"/>
+    <col min="28" max="28" bestFit="true" customWidth="true" width="71.98046875" collapsed="true"/>
+    <col min="29" max="29" bestFit="true" customWidth="true" width="61.3984375" collapsed="true"/>
+    <col min="30" max="30" bestFit="true" customWidth="true" width="40.96484375" collapsed="true"/>
+    <col min="31" max="31" bestFit="true" customWidth="true" width="7.109375" collapsed="true"/>
+    <col min="32" max="32" bestFit="true" customWidth="true" width="28.8046875" collapsed="true"/>
+    <col min="33" max="33" bestFit="true" customWidth="true" width="16.36328125" collapsed="true"/>
+    <col min="34" max="34" bestFit="true" customWidth="true" width="1.03515625" collapsed="true"/>
+    <col min="35" max="35" bestFit="true" customWidth="true" width="15.25390625" collapsed="true"/>
+    <col min="36" max="36" bestFit="true" customWidth="true" width="13.73046875" collapsed="true"/>
+    <col min="38" max="38" bestFit="true" customWidth="true" width="40.25390625" collapsed="true"/>
+    <col min="39" max="39" bestFit="true" customWidth="true" width="56.86328125" collapsed="true"/>
+    <col min="40" max="40" bestFit="true" customWidth="true" width="9.30078125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -557,61 +694,61 @@
         <v>56</v>
       </c>
       <c r="U2" t="s">
+        <v>43</v>
+      </c>
+      <c r="V2" t="s">
         <v>57</v>
       </c>
-      <c r="V2" t="s">
+      <c r="W2" t="s">
         <v>58</v>
       </c>
-      <c r="W2" t="s">
+      <c r="X2" t="s">
         <v>59</v>
       </c>
-      <c r="X2" t="s">
+      <c r="Y2" t="s">
         <v>60</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="Z2" t="s">
         <v>61</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="AA2" t="s">
         <v>62</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="AB2" t="s">
         <v>63</v>
       </c>
-      <c r="AB2" t="s">
+      <c r="AC2" t="s">
         <v>64</v>
       </c>
-      <c r="AC2" t="s">
+      <c r="AD2" t="s">
         <v>65</v>
       </c>
-      <c r="AD2" t="s">
+      <c r="AE2" t="s">
         <v>66</v>
       </c>
-      <c r="AE2" t="s">
+      <c r="AF2" t="s">
         <v>67</v>
       </c>
-      <c r="AF2" t="s">
-        <v>68</v>
-      </c>
       <c r="AG2" t="s">
+        <v>68</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>68</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>68</v>
+      </c>
+      <c r="AJ2" t="s">
+        <v>68</v>
+      </c>
+      <c r="AL2" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="AM2" t="s">
+        <v>71</v>
+      </c>
+      <c r="AN2" s="2" t="s">
         <v>69</v>
-      </c>
-      <c r="AH2" t="s">
-        <v>70</v>
-      </c>
-      <c r="AI2" t="s">
-        <v>71</v>
-      </c>
-      <c r="AJ2" t="s">
-        <v>72</v>
-      </c>
-      <c r="AL2" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="AM2" t="s">
-        <v>75</v>
-      </c>
-      <c r="AN2" s="2" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="3">
@@ -676,67 +813,787 @@
         <v>56</v>
       </c>
       <c r="U3" t="s">
+        <v>43</v>
+      </c>
+      <c r="V3" t="s">
         <v>57</v>
       </c>
-      <c r="V3" t="s">
+      <c r="W3" t="s">
         <v>58</v>
       </c>
-      <c r="W3" t="s">
+      <c r="X3" t="s">
         <v>59</v>
       </c>
-      <c r="X3" t="s">
+      <c r="Y3" t="s">
         <v>60</v>
       </c>
-      <c r="Y3" t="s">
+      <c r="Z3" t="s">
         <v>61</v>
       </c>
-      <c r="Z3" t="s">
+      <c r="AA3" t="s">
         <v>62</v>
       </c>
-      <c r="AA3" t="s">
+      <c r="AB3" t="s">
         <v>63</v>
       </c>
-      <c r="AB3" t="s">
+      <c r="AC3" t="s">
         <v>64</v>
       </c>
-      <c r="AC3" t="s">
+      <c r="AD3" t="s">
         <v>65</v>
       </c>
-      <c r="AD3" t="s">
+      <c r="AE3" t="s">
         <v>66</v>
       </c>
-      <c r="AE3" t="s">
+      <c r="AF3" t="s">
         <v>67</v>
       </c>
-      <c r="AF3" t="s">
-        <v>68</v>
-      </c>
       <c r="AG3" t="s">
+        <v>68</v>
+      </c>
+      <c r="AH3" t="s">
+        <v>68</v>
+      </c>
+      <c r="AI3" t="s">
+        <v>68</v>
+      </c>
+      <c r="AJ3" t="s">
+        <v>68</v>
+      </c>
+      <c r="AL3" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="AM3" t="s">
+        <v>74</v>
+      </c>
+      <c r="AN3" s="4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E4" t="s">
+        <v>42</v>
+      </c>
+      <c r="F4" t="s">
+        <v>43</v>
+      </c>
+      <c r="G4" t="s">
+        <v>43</v>
+      </c>
+      <c r="H4" t="s">
+        <v>44</v>
+      </c>
+      <c r="I4" t="s">
+        <v>45</v>
+      </c>
+      <c r="J4" t="s">
+        <v>46</v>
+      </c>
+      <c r="K4" t="s">
+        <v>47</v>
+      </c>
+      <c r="L4" t="s">
+        <v>48</v>
+      </c>
+      <c r="M4" t="s">
+        <v>49</v>
+      </c>
+      <c r="N4" t="s">
+        <v>50</v>
+      </c>
+      <c r="O4" t="s">
+        <v>51</v>
+      </c>
+      <c r="P4" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>53</v>
+      </c>
+      <c r="R4" t="s">
+        <v>54</v>
+      </c>
+      <c r="S4" t="s">
+        <v>55</v>
+      </c>
+      <c r="T4" t="s">
+        <v>56</v>
+      </c>
+      <c r="U4" t="s">
+        <v>43</v>
+      </c>
+      <c r="V4" t="s">
+        <v>57</v>
+      </c>
+      <c r="W4" t="s">
+        <v>58</v>
+      </c>
+      <c r="X4" t="s">
+        <v>59</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>60</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>61</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>62</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>63</v>
+      </c>
+      <c r="AC4" t="s">
+        <v>64</v>
+      </c>
+      <c r="AD4" t="s">
+        <v>75</v>
+      </c>
+      <c r="AE4" t="s">
+        <v>66</v>
+      </c>
+      <c r="AF4" t="s">
+        <v>67</v>
+      </c>
+      <c r="AG4" t="s">
+        <v>68</v>
+      </c>
+      <c r="AH4" t="s">
+        <v>68</v>
+      </c>
+      <c r="AI4" t="s">
+        <v>68</v>
+      </c>
+      <c r="AJ4" t="s">
+        <v>68</v>
+      </c>
+      <c r="AL4" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="AM4" t="s">
+        <v>71</v>
+      </c>
+      <c r="AN4" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="AH3" t="s">
-        <v>70</v>
-      </c>
-      <c r="AI3" t="s">
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D5" t="s">
+        <v>41</v>
+      </c>
+      <c r="E5" t="s">
+        <v>42</v>
+      </c>
+      <c r="F5" t="s">
+        <v>43</v>
+      </c>
+      <c r="G5" t="s">
+        <v>43</v>
+      </c>
+      <c r="H5" t="s">
+        <v>44</v>
+      </c>
+      <c r="I5" t="s">
+        <v>45</v>
+      </c>
+      <c r="J5" t="s">
+        <v>46</v>
+      </c>
+      <c r="K5" t="s">
+        <v>47</v>
+      </c>
+      <c r="L5" t="s">
+        <v>48</v>
+      </c>
+      <c r="M5" t="s">
+        <v>49</v>
+      </c>
+      <c r="N5" t="s">
+        <v>50</v>
+      </c>
+      <c r="O5" t="s">
+        <v>51</v>
+      </c>
+      <c r="P5" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>53</v>
+      </c>
+      <c r="R5" t="s">
+        <v>54</v>
+      </c>
+      <c r="S5" t="s">
+        <v>55</v>
+      </c>
+      <c r="T5" t="s">
+        <v>56</v>
+      </c>
+      <c r="U5" t="s">
+        <v>43</v>
+      </c>
+      <c r="V5" t="s">
+        <v>57</v>
+      </c>
+      <c r="W5" t="s">
+        <v>58</v>
+      </c>
+      <c r="X5" t="s">
+        <v>59</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>60</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>61</v>
+      </c>
+      <c r="AA5" t="s">
+        <v>62</v>
+      </c>
+      <c r="AB5" t="s">
+        <v>63</v>
+      </c>
+      <c r="AC5" t="s">
+        <v>64</v>
+      </c>
+      <c r="AD5" t="s">
+        <v>75</v>
+      </c>
+      <c r="AE5" t="s">
+        <v>66</v>
+      </c>
+      <c r="AF5" t="s">
+        <v>67</v>
+      </c>
+      <c r="AG5" t="s">
+        <v>68</v>
+      </c>
+      <c r="AH5" t="s">
+        <v>68</v>
+      </c>
+      <c r="AI5" t="s">
+        <v>68</v>
+      </c>
+      <c r="AJ5" t="s">
+        <v>68</v>
+      </c>
+      <c r="AL5" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="AM5" t="s">
+        <v>78</v>
+      </c>
+      <c r="AN5" s="8" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D6" t="s">
+        <v>41</v>
+      </c>
+      <c r="E6" t="s">
+        <v>42</v>
+      </c>
+      <c r="F6" t="s">
+        <v>43</v>
+      </c>
+      <c r="G6" t="s">
+        <v>43</v>
+      </c>
+      <c r="H6" t="s">
+        <v>44</v>
+      </c>
+      <c r="I6" t="s">
+        <v>79</v>
+      </c>
+      <c r="J6" t="s">
+        <v>46</v>
+      </c>
+      <c r="K6" t="s">
+        <v>47</v>
+      </c>
+      <c r="L6" t="s">
+        <v>48</v>
+      </c>
+      <c r="M6" t="s">
+        <v>49</v>
+      </c>
+      <c r="N6" t="s">
+        <v>50</v>
+      </c>
+      <c r="O6" t="s">
+        <v>51</v>
+      </c>
+      <c r="P6" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>53</v>
+      </c>
+      <c r="R6" t="s">
+        <v>54</v>
+      </c>
+      <c r="S6" t="s">
+        <v>55</v>
+      </c>
+      <c r="T6" t="s">
+        <v>80</v>
+      </c>
+      <c r="U6" t="s">
+        <v>43</v>
+      </c>
+      <c r="V6" t="s">
+        <v>57</v>
+      </c>
+      <c r="W6" t="s">
+        <v>58</v>
+      </c>
+      <c r="X6" t="s">
+        <v>81</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>60</v>
+      </c>
+      <c r="Z6" t="s">
+        <v>61</v>
+      </c>
+      <c r="AA6" t="s">
+        <v>62</v>
+      </c>
+      <c r="AB6" t="s">
+        <v>63</v>
+      </c>
+      <c r="AC6" t="s">
+        <v>64</v>
+      </c>
+      <c r="AD6" t="s">
+        <v>65</v>
+      </c>
+      <c r="AE6" t="s">
+        <v>66</v>
+      </c>
+      <c r="AF6" t="s">
+        <v>67</v>
+      </c>
+      <c r="AG6" t="s">
+        <v>68</v>
+      </c>
+      <c r="AH6" t="s">
+        <v>68</v>
+      </c>
+      <c r="AI6" t="s">
+        <v>68</v>
+      </c>
+      <c r="AJ6" t="s">
+        <v>68</v>
+      </c>
+      <c r="AL6" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="AM6" t="s">
         <v>71</v>
       </c>
-      <c r="AJ3" t="s">
+      <c r="AN6" s="10" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>38</v>
+      </c>
+      <c r="B7" t="s">
+        <v>39</v>
+      </c>
+      <c r="C7" t="s">
+        <v>40</v>
+      </c>
+      <c r="D7" t="s">
+        <v>41</v>
+      </c>
+      <c r="E7" t="s">
+        <v>42</v>
+      </c>
+      <c r="F7" t="s">
+        <v>43</v>
+      </c>
+      <c r="G7" t="s">
+        <v>43</v>
+      </c>
+      <c r="H7" t="s">
+        <v>44</v>
+      </c>
+      <c r="I7" t="s">
+        <v>79</v>
+      </c>
+      <c r="J7" t="s">
+        <v>46</v>
+      </c>
+      <c r="K7" t="s">
+        <v>47</v>
+      </c>
+      <c r="L7" t="s">
+        <v>48</v>
+      </c>
+      <c r="M7" t="s">
+        <v>49</v>
+      </c>
+      <c r="N7" t="s">
+        <v>50</v>
+      </c>
+      <c r="O7" t="s">
+        <v>51</v>
+      </c>
+      <c r="P7" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>53</v>
+      </c>
+      <c r="R7" t="s">
+        <v>54</v>
+      </c>
+      <c r="S7" t="s">
+        <v>55</v>
+      </c>
+      <c r="T7" t="s">
+        <v>80</v>
+      </c>
+      <c r="U7" t="s">
+        <v>43</v>
+      </c>
+      <c r="V7" t="s">
+        <v>57</v>
+      </c>
+      <c r="W7" t="s">
+        <v>58</v>
+      </c>
+      <c r="X7" t="s">
+        <v>81</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>60</v>
+      </c>
+      <c r="Z7" t="s">
+        <v>61</v>
+      </c>
+      <c r="AA7" t="s">
+        <v>62</v>
+      </c>
+      <c r="AB7" t="s">
+        <v>63</v>
+      </c>
+      <c r="AC7" t="s">
+        <v>64</v>
+      </c>
+      <c r="AD7" t="s">
+        <v>65</v>
+      </c>
+      <c r="AE7" t="s">
+        <v>66</v>
+      </c>
+      <c r="AF7" t="s">
+        <v>67</v>
+      </c>
+      <c r="AG7" t="s">
+        <v>68</v>
+      </c>
+      <c r="AH7" t="s">
+        <v>68</v>
+      </c>
+      <c r="AI7" t="s">
+        <v>68</v>
+      </c>
+      <c r="AJ7" t="s">
+        <v>68</v>
+      </c>
+      <c r="AL7" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="AM7" t="s">
+        <v>74</v>
+      </c>
+      <c r="AN7" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="AL3" t="s" s="5">
-        <v>76</v>
-      </c>
-      <c r="AM3" t="s">
-        <v>75</v>
-      </c>
-      <c r="AN3" t="s" s="4">
-        <v>73</v>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C8" t="s">
+        <v>40</v>
+      </c>
+      <c r="D8" t="s">
+        <v>41</v>
+      </c>
+      <c r="E8" t="s">
+        <v>42</v>
+      </c>
+      <c r="F8" t="s">
+        <v>43</v>
+      </c>
+      <c r="G8" t="s">
+        <v>43</v>
+      </c>
+      <c r="H8" t="s">
+        <v>44</v>
+      </c>
+      <c r="I8" t="s">
+        <v>79</v>
+      </c>
+      <c r="J8" t="s">
+        <v>46</v>
+      </c>
+      <c r="K8" t="s">
+        <v>47</v>
+      </c>
+      <c r="L8" t="s">
+        <v>48</v>
+      </c>
+      <c r="M8" t="s">
+        <v>49</v>
+      </c>
+      <c r="N8" t="s">
+        <v>50</v>
+      </c>
+      <c r="O8" t="s">
+        <v>51</v>
+      </c>
+      <c r="P8" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>53</v>
+      </c>
+      <c r="R8" t="s">
+        <v>54</v>
+      </c>
+      <c r="S8" t="s">
+        <v>55</v>
+      </c>
+      <c r="T8" t="s">
+        <v>80</v>
+      </c>
+      <c r="U8" t="s">
+        <v>43</v>
+      </c>
+      <c r="V8" t="s">
+        <v>57</v>
+      </c>
+      <c r="W8" t="s">
+        <v>58</v>
+      </c>
+      <c r="X8" t="s">
+        <v>81</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>60</v>
+      </c>
+      <c r="Z8" t="s">
+        <v>61</v>
+      </c>
+      <c r="AA8" t="s">
+        <v>62</v>
+      </c>
+      <c r="AB8" t="s">
+        <v>63</v>
+      </c>
+      <c r="AC8" t="s">
+        <v>64</v>
+      </c>
+      <c r="AD8" t="s">
+        <v>84</v>
+      </c>
+      <c r="AE8" t="s">
+        <v>66</v>
+      </c>
+      <c r="AF8" t="s">
+        <v>67</v>
+      </c>
+      <c r="AG8" t="s">
+        <v>68</v>
+      </c>
+      <c r="AH8" t="s">
+        <v>68</v>
+      </c>
+      <c r="AI8" t="s">
+        <v>68</v>
+      </c>
+      <c r="AJ8" t="s">
+        <v>68</v>
+      </c>
+      <c r="AL8" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="AM8" t="s">
+        <v>71</v>
+      </c>
+      <c r="AN8" s="14" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>38</v>
+      </c>
+      <c r="B9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C9" t="s">
+        <v>40</v>
+      </c>
+      <c r="D9" t="s">
+        <v>41</v>
+      </c>
+      <c r="E9" t="s">
+        <v>42</v>
+      </c>
+      <c r="F9" t="s">
+        <v>43</v>
+      </c>
+      <c r="G9" t="s">
+        <v>43</v>
+      </c>
+      <c r="H9" t="s">
+        <v>44</v>
+      </c>
+      <c r="I9" t="s">
+        <v>79</v>
+      </c>
+      <c r="J9" t="s">
+        <v>46</v>
+      </c>
+      <c r="K9" t="s">
+        <v>47</v>
+      </c>
+      <c r="L9" t="s">
+        <v>48</v>
+      </c>
+      <c r="M9" t="s">
+        <v>49</v>
+      </c>
+      <c r="N9" t="s">
+        <v>50</v>
+      </c>
+      <c r="O9" t="s">
+        <v>51</v>
+      </c>
+      <c r="P9" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>53</v>
+      </c>
+      <c r="R9" t="s">
+        <v>54</v>
+      </c>
+      <c r="S9" t="s">
+        <v>55</v>
+      </c>
+      <c r="T9" t="s">
+        <v>80</v>
+      </c>
+      <c r="U9" t="s">
+        <v>43</v>
+      </c>
+      <c r="V9" t="s">
+        <v>57</v>
+      </c>
+      <c r="W9" t="s">
+        <v>58</v>
+      </c>
+      <c r="X9" t="s">
+        <v>81</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>60</v>
+      </c>
+      <c r="Z9" t="s">
+        <v>61</v>
+      </c>
+      <c r="AA9" t="s">
+        <v>62</v>
+      </c>
+      <c r="AB9" t="s">
+        <v>63</v>
+      </c>
+      <c r="AC9" t="s">
+        <v>64</v>
+      </c>
+      <c r="AD9" t="s">
+        <v>84</v>
+      </c>
+      <c r="AE9" t="s">
+        <v>66</v>
+      </c>
+      <c r="AF9" t="s">
+        <v>67</v>
+      </c>
+      <c r="AG9" t="s">
+        <v>68</v>
+      </c>
+      <c r="AH9" t="s">
+        <v>68</v>
+      </c>
+      <c r="AI9" t="s">
+        <v>68</v>
+      </c>
+      <c r="AJ9" t="s">
+        <v>68</v>
+      </c>
+      <c r="AL9" t="s" s="17">
+        <v>86</v>
+      </c>
+      <c r="AM9" t="s">
+        <v>78</v>
+      </c>
+      <c r="AN9" t="s" s="16">
+        <v>72</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink r:id="rId1" ref="AL2"/>
-    <hyperlink ref="AL3" r:id="rId2"/>
+    <hyperlink r:id="rId2" ref="AL3"/>
+    <hyperlink r:id="rId3" ref="AL4"/>
+    <hyperlink r:id="rId4" ref="AL5"/>
+    <hyperlink r:id="rId5" ref="AL6"/>
+    <hyperlink r:id="rId6" ref="AL7"/>
+    <hyperlink r:id="rId7" ref="AL8"/>
+    <hyperlink ref="AL9" r:id="rId8"/>
   </hyperlinks>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/Screenshots/Add class Report.xlsx
+++ b/Screenshots/Add class Report.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="799" uniqueCount="116">
   <si>
     <t>key</t>
   </si>
@@ -107,6 +107,9 @@
     <t>price</t>
   </si>
   <si>
+    <t>prereq</t>
+  </si>
+  <si>
     <t>description</t>
   </si>
   <si>
@@ -137,10 +140,10 @@
     <t>n</t>
   </si>
   <si>
-    <t>tutor53@nkt.com</t>
-  </si>
-  <si>
-    <t>Admin@123</t>
+    <t>srinivasesaivanan6324@gmail.com</t>
+  </si>
+  <si>
+    <t>Test@1234</t>
   </si>
   <si>
     <t>0</t>
@@ -149,130 +152,220 @@
     <t>Clarinet</t>
   </si>
   <si>
-    <t>PHP session multi 1</t>
+    <t>mon onli grp inf</t>
   </si>
   <si>
     <t>bus</t>
   </si>
   <si>
+    <t>individual</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>expert</t>
+  </si>
+  <si>
+    <t>online</t>
+  </si>
+  <si>
+    <t>Mudaliarpet</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>0,1</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>Every week</t>
+  </si>
+  <si>
+    <t>monday</t>
+  </si>
+  <si>
+    <t>04:00 pm</t>
+  </si>
+  <si>
+    <t>05:00 pm</t>
+  </si>
+  <si>
+    <t>14/01/2023</t>
+  </si>
+  <si>
+    <t>28/02/2023</t>
+  </si>
+  <si>
+    <t>https://support.zoom.us/hc/en-us/articles/201362843-What-is-Personal-Meeting-ID-PMI-and-Personal-Link-</t>
+  </si>
+  <si>
+    <t>GHJ56GHJK58</t>
+  </si>
+  <si>
+    <t>https://test.nurtem.com/Packages/singleproduct/15/edwin-package-6th-grade</t>
+  </si>
+  <si>
+    <t>https://test.nurtem.com/Packages/singleproduct/190/data-science</t>
+  </si>
+  <si>
+    <t>D:\test\picturesprofile1\bharat3.jpg</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>Test</t>
+  </si>
+  <si>
+    <t>sess class multi 10/01 - 28/01</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Passed</t>
+  </si>
+  <si>
+    <t>./Screenshots/2023-01-13-11-18-02.png</t>
+  </si>
+  <si>
+    <t>Tutor Login Form submitted succesfully :[]</t>
+  </si>
+  <si>
+    <t>Failed</t>
+  </si>
+  <si>
+    <t>./Screenshots/2023-01-13-11-19-03.png</t>
+  </si>
+  <si>
+    <t>Tutor add class has error : element not interactable
+  (Session info: chrome=108.0.5359.125)
+Build info: version: '3.141.59', revision: 'e82be7d358', time: '2018-11-14T08:25:53'
+System info: host: 'LAPTOP-A5ODB7KC', ip: '192.168.1.49', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_282'
+Driver info: com.kms.katalon.selenium.driver.CChromeDriver
+Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 108.0.5359.125, chrome: {chromedriverVersion: 108.0.5359.71 (1e0e3868ee06..., userDataDir: C:\Users\Srinivas\AppData\L...}, goog:chromeOptions: {debuggerAddress: localhost:50191}, javascriptEnabled: true, networkConnectionEnabled: false, pageLoadStrategy: normal, platform: WINDOWS, platformName: WINDOWS, proxy: Proxy(), setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:virtualAuthenticators: true}
+Session ID: f82249b019029bc3fb09ee26c0b05b65</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>tus in-per ind tod</t>
+  </si>
+  <si>
     <t>group</t>
   </si>
   <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>Beginner</t>
-  </si>
-  <si>
-    <t>online</t>
-  </si>
-  <si>
-    <t>Mudaliarpet</t>
-  </si>
-  <si>
-    <t>1</t>
+    <t>in_person</t>
+  </si>
+  <si>
+    <t>1,2</t>
+  </si>
+  <si>
+    <t>tuesday</t>
+  </si>
+  <si>
+    <t>./Screenshots/2023-01-13-11-19-46.png</t>
+  </si>
+  <si>
+    <t>./Screenshots/2023-01-13-11-21-53.png</t>
+  </si>
+  <si>
+    <t>Tutor add class submission has error :[]</t>
+  </si>
+  <si>
+    <t>wed dri grp pre</t>
+  </si>
+  <si>
+    <t>drive</t>
   </si>
   <si>
     <t>2,5</t>
   </si>
   <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>Every week</t>
-  </si>
-  <si>
-    <t>Saturday,Wednesday,Tuesday</t>
-  </si>
-  <si>
-    <t>04:00 pm</t>
-  </si>
-  <si>
-    <t>05:00 pm</t>
-  </si>
-  <si>
-    <t>08/12/2022</t>
-  </si>
-  <si>
-    <t>31/01/2023</t>
-  </si>
-  <si>
-    <t>https://support.zoom.us/hc/en-us/articles/201362843-What-is-Personal-Meeting-ID-PMI-and-Personal-Link-</t>
-  </si>
-  <si>
-    <t>GHJ56GHJK58</t>
-  </si>
-  <si>
-    <t>https://test.nurtem.com/Packages/singleproduct/15/edwin-package-6th-grade</t>
-  </si>
-  <si>
-    <t>https://test.nurtem.com/Packages/singleproduct/190/data-science</t>
-  </si>
-  <si>
-    <t>D:\nurtem\test\picturesprofile1\bharat3.jpg</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>sess class special 29/11 - 31/12</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>Passed</t>
-  </si>
-  <si>
-    <t>./Screenshots/2022-12-07-15-07-51.png</t>
-  </si>
-  <si>
-    <t>Tutor Login Form submitted succesfully :[]</t>
-  </si>
-  <si>
-    <t>Failed</t>
-  </si>
-  <si>
-    <t>./Screenshots/2022-12-07-15-10-27.png</t>
-  </si>
-  <si>
-    <t>Tutor add class submission has error :[Description is required.]</t>
-  </si>
-  <si>
-    <t>D:\test\picturesprofile1\baseball1.jpg</t>
-  </si>
-  <si>
-    <t>./Screenshots/2022-12-07-15-13-09.png</t>
-  </si>
-  <si>
-    <t>./Screenshots/2022-12-07-15-16-02.png</t>
-  </si>
-  <si>
-    <t>Tutor add class submission has error :[]</t>
-  </si>
-  <si>
-    <t>PHP session 4</t>
-  </si>
-  <si>
-    <t>monday</t>
-  </si>
-  <si>
-    <t>10/12/2022</t>
-  </si>
-  <si>
-    <t>./Screenshots/2022-12-09-11-18-27.png</t>
-  </si>
-  <si>
-    <t>./Screenshots/2022-12-09-11-20-16.png</t>
-  </si>
-  <si>
-    <t>D:\test\picturesprofile1\bharat3.jpg</t>
-  </si>
-  <si>
-    <t>./Screenshots/2022-12-09-11-22-19.png</t>
-  </si>
-  <si>
-    <t>./Screenshots/2022-12-09-11-24-16.png</t>
+    <t>wednesday</t>
+  </si>
+  <si>
+    <t>./Screenshots/2023-01-13-11-22-27.png</t>
+  </si>
+  <si>
+    <t>./Screenshots/2023-01-13-11-24-29.png</t>
+  </si>
+  <si>
+    <t>fri in-per ind tod</t>
+  </si>
+  <si>
+    <t>friday</t>
+  </si>
+  <si>
+    <t>60</t>
+  </si>
+  <si>
+    <t>./Screenshots/2023-01-13-11-29-31.png</t>
+  </si>
+  <si>
+    <t>./Screenshots/2023-01-13-11-31-44.png</t>
+  </si>
+  <si>
+    <t>./Screenshots/2023-01-13-12-57-41.png</t>
+  </si>
+  <si>
+    <t>./Screenshots/2023-01-13-12-59-42.png</t>
+  </si>
+  <si>
+    <t>fri in-per ind tod 1</t>
+  </si>
+  <si>
+    <t>./Screenshots/2023-01-13-15-16-32.png</t>
+  </si>
+  <si>
+    <t>./Screenshots/2023-01-13-15-18-39.png</t>
+  </si>
+  <si>
+    <t>Pilot sess 1</t>
+  </si>
+  <si>
+    <t>19/01/2023</t>
+  </si>
+  <si>
+    <t>sess class multi 19/01 - 28/01</t>
+  </si>
+  <si>
+    <t>./Screenshots/2023-01-18-11-13-31.png</t>
+  </si>
+  <si>
+    <t>./Screenshots/2023-01-18-11-26-21.png</t>
+  </si>
+  <si>
+    <t>./Screenshots/2023-01-18-11-28-30.png</t>
+  </si>
+  <si>
+    <t>Pilot MV 1</t>
+  </si>
+  <si>
+    <t>mv class multi 19/01 - 28/03</t>
+  </si>
+  <si>
+    <t>./Screenshots/2023-01-18-11-29-08.png</t>
+  </si>
+  <si>
+    <t>./Screenshots/2023-01-18-11-31-14.png</t>
+  </si>
+  <si>
+    <t>Pilot MF 1</t>
+  </si>
+  <si>
+    <t>mf class multi 19/01 - 28/04</t>
+  </si>
+  <si>
+    <t>./Screenshots/2023-01-18-11-31-55.png</t>
+  </si>
+  <si>
+    <t>./Screenshots/2023-01-18-11-34-02.png</t>
   </si>
 </sst>
 </file>
@@ -280,7 +373,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="10">
+  <fonts count="21">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
@@ -342,8 +435,74 @@
       <i val="true"/>
       <color indexed="12"/>
     </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <i val="true"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <i val="true"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <i val="true"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <i val="true"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <i val="true"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <i val="true"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <i val="true"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <i val="true"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <i val="true"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <i val="true"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <i val="true"/>
+      <color indexed="12"/>
+    </font>
   </fonts>
-  <fills count="18">
+  <fills count="40">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -368,6 +527,116 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
       </patternFill>
     </fill>
     <fill>
@@ -443,7 +712,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="40">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyFont="true" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
     <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
@@ -460,15 +729,37 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0"/>
     <xf applyFill="true" borderId="0" fillId="15" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyFont="true" borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf applyFill="true" borderId="0" fillId="17" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="19" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="21" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="11" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="23" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="12" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="25" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="13" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="27" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="14" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="29" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="15" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="31" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="16" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="17" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="35" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="18" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="37" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="19" numFmtId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="39" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AO9"/>
+  <dimension ref="A1:AP20"/>
   <sheetViews>
     <sheetView tabSelected="true" workbookViewId="0"/>
   </sheetViews>
@@ -477,12 +768,12 @@
     <col min="1" max="1" bestFit="true" customWidth="true" width="9.70703125" collapsed="true"/>
     <col min="2" max="2" bestFit="true" customWidth="true" width="5.94140625" collapsed="true"/>
     <col min="3" max="3" bestFit="true" customWidth="true" width="13.375" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="17.0859375" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="32.3515625" collapsed="true"/>
     <col min="5" max="5" bestFit="true" customWidth="true" width="12.55078125" collapsed="true"/>
     <col min="6" max="6" bestFit="true" customWidth="true" width="15.02734375" collapsed="true"/>
     <col min="7" max="7" bestFit="true" customWidth="true" width="17.88671875" collapsed="true"/>
     <col min="8" max="8" bestFit="true" customWidth="true" width="18.39453125" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="18.44140625" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="17.3046875" collapsed="true"/>
     <col min="10" max="10" bestFit="true" customWidth="true" width="12.49609375" collapsed="true"/>
     <col min="11" max="11" bestFit="true" customWidth="true" width="17.8984375" collapsed="true"/>
     <col min="12" max="12" bestFit="true" customWidth="true" width="7.33984375" collapsed="true"/>
@@ -493,7 +784,7 @@
     <col min="17" max="17" bestFit="true" customWidth="true" width="14.8046875" collapsed="true"/>
     <col min="18" max="18" bestFit="true" customWidth="true" width="22.70703125" collapsed="true"/>
     <col min="19" max="19" bestFit="true" customWidth="true" width="19.91796875" collapsed="true"/>
-    <col min="20" max="20" bestFit="true" customWidth="true" width="27.9765625" collapsed="true"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="16.984375" collapsed="true"/>
     <col min="21" max="21" bestFit="true" customWidth="true" width="11.390625" collapsed="true"/>
     <col min="22" max="22" bestFit="true" customWidth="true" width="14.9375" collapsed="true"/>
     <col min="23" max="23" bestFit="true" customWidth="true" width="15.390625" collapsed="true"/>
@@ -503,16 +794,17 @@
     <col min="27" max="27" bestFit="true" customWidth="true" width="13.55859375" collapsed="true"/>
     <col min="28" max="28" bestFit="true" customWidth="true" width="71.98046875" collapsed="true"/>
     <col min="29" max="29" bestFit="true" customWidth="true" width="61.3984375" collapsed="true"/>
-    <col min="30" max="30" bestFit="true" customWidth="true" width="40.96484375" collapsed="true"/>
+    <col min="30" max="30" bestFit="true" customWidth="true" width="33.4453125" collapsed="true"/>
     <col min="31" max="31" bestFit="true" customWidth="true" width="7.109375" collapsed="true"/>
-    <col min="32" max="32" bestFit="true" customWidth="true" width="28.8046875" collapsed="true"/>
-    <col min="33" max="33" bestFit="true" customWidth="true" width="16.36328125" collapsed="true"/>
-    <col min="34" max="34" bestFit="true" customWidth="true" width="1.03515625" collapsed="true"/>
-    <col min="35" max="35" bestFit="true" customWidth="true" width="15.25390625" collapsed="true"/>
-    <col min="36" max="36" bestFit="true" customWidth="true" width="13.73046875" collapsed="true"/>
-    <col min="38" max="38" bestFit="true" customWidth="true" width="40.25390625" collapsed="true"/>
-    <col min="39" max="39" bestFit="true" customWidth="true" width="56.86328125" collapsed="true"/>
-    <col min="40" max="40" bestFit="true" customWidth="true" width="9.30078125" collapsed="true"/>
+    <col min="32" max="32" bestFit="true" customWidth="true" width="9.15625" collapsed="true"/>
+    <col min="33" max="33" bestFit="true" customWidth="true" width="27.36328125" collapsed="true"/>
+    <col min="34" max="34" bestFit="true" customWidth="true" width="16.36328125" collapsed="true"/>
+    <col min="35" max="35" bestFit="true" customWidth="true" width="1.03515625" collapsed="true"/>
+    <col min="36" max="36" bestFit="true" customWidth="true" width="15.25390625" collapsed="true"/>
+    <col min="37" max="37" bestFit="true" customWidth="true" width="13.73046875" collapsed="true"/>
+    <col min="39" max="39" bestFit="true" customWidth="true" width="40.25390625" collapsed="true"/>
+    <col min="40" max="40" bestFit="true" customWidth="true" width="255.0" collapsed="true"/>
+    <col min="41" max="41" bestFit="true" customWidth="true" width="9.30078125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -615,14 +907,14 @@
       <c r="AG1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="AH1" s="1"/>
-      <c r="AI1" s="1" t="s">
+      <c r="AH1" s="1" t="s">
         <v>33</v>
       </c>
+      <c r="AI1" s="1"/>
       <c r="AJ1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="AL1" s="1" t="s">
+      <c r="AK1" s="1" t="s">
         <v>35</v>
       </c>
       <c r="AM1" s="1" t="s">
@@ -630,970 +922,2350 @@
       </c>
       <c r="AN1" s="1" t="s">
         <v>37</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H2" t="s">
+        <v>45</v>
+      </c>
+      <c r="I2" t="s">
+        <v>46</v>
+      </c>
+      <c r="J2" t="s">
+        <v>47</v>
+      </c>
+      <c r="K2" t="s">
+        <v>48</v>
+      </c>
+      <c r="L2" t="s">
+        <v>49</v>
+      </c>
+      <c r="M2" t="s">
+        <v>50</v>
+      </c>
+      <c r="N2" t="s">
+        <v>51</v>
+      </c>
+      <c r="O2" t="s">
+        <v>52</v>
+      </c>
+      <c r="P2" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>54</v>
+      </c>
+      <c r="R2" t="s">
+        <v>55</v>
+      </c>
+      <c r="S2" t="s">
+        <v>56</v>
+      </c>
+      <c r="T2" t="s">
+        <v>57</v>
+      </c>
+      <c r="U2" t="s">
         <v>44</v>
       </c>
-      <c r="I2" t="s">
-        <v>45</v>
-      </c>
-      <c r="J2" t="s">
-        <v>46</v>
-      </c>
-      <c r="K2" t="s">
-        <v>47</v>
-      </c>
-      <c r="L2" t="s">
-        <v>48</v>
-      </c>
-      <c r="M2" t="s">
-        <v>49</v>
-      </c>
-      <c r="N2" t="s">
-        <v>50</v>
-      </c>
-      <c r="O2" t="s">
-        <v>51</v>
-      </c>
-      <c r="P2" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>53</v>
-      </c>
-      <c r="R2" t="s">
-        <v>54</v>
-      </c>
-      <c r="S2" t="s">
-        <v>55</v>
-      </c>
-      <c r="T2" t="s">
-        <v>56</v>
-      </c>
-      <c r="U2" t="s">
-        <v>43</v>
-      </c>
       <c r="V2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="W2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="X2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Y2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="Z2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AA2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AB2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AC2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AD2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="AE2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="AF2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AG2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="AH2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="AI2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="AJ2" t="s">
-        <v>68</v>
-      </c>
-      <c r="AL2" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="AM2" t="s">
+        <v>70</v>
+      </c>
+      <c r="AK2" t="s">
+        <v>70</v>
+      </c>
+      <c r="AM2" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="AN2" t="s">
+        <v>73</v>
+      </c>
+      <c r="AO2" s="2" t="s">
         <v>71</v>
-      </c>
-      <c r="AN2" s="2" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H3" t="s">
+        <v>45</v>
+      </c>
+      <c r="I3" t="s">
+        <v>46</v>
+      </c>
+      <c r="J3" t="s">
+        <v>47</v>
+      </c>
+      <c r="K3" t="s">
+        <v>48</v>
+      </c>
+      <c r="L3" t="s">
+        <v>49</v>
+      </c>
+      <c r="M3" t="s">
+        <v>50</v>
+      </c>
+      <c r="N3" t="s">
+        <v>51</v>
+      </c>
+      <c r="O3" t="s">
+        <v>52</v>
+      </c>
+      <c r="P3" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>54</v>
+      </c>
+      <c r="R3" t="s">
+        <v>55</v>
+      </c>
+      <c r="S3" t="s">
+        <v>56</v>
+      </c>
+      <c r="T3" t="s">
+        <v>57</v>
+      </c>
+      <c r="U3" t="s">
         <v>44</v>
       </c>
-      <c r="I3" t="s">
-        <v>45</v>
-      </c>
-      <c r="J3" t="s">
-        <v>46</v>
-      </c>
-      <c r="K3" t="s">
-        <v>47</v>
-      </c>
-      <c r="L3" t="s">
-        <v>48</v>
-      </c>
-      <c r="M3" t="s">
-        <v>49</v>
-      </c>
-      <c r="N3" t="s">
-        <v>50</v>
-      </c>
-      <c r="O3" t="s">
-        <v>51</v>
-      </c>
-      <c r="P3" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>53</v>
-      </c>
-      <c r="R3" t="s">
-        <v>54</v>
-      </c>
-      <c r="S3" t="s">
-        <v>55</v>
-      </c>
-      <c r="T3" t="s">
-        <v>56</v>
-      </c>
-      <c r="U3" t="s">
-        <v>43</v>
-      </c>
       <c r="V3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="W3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="X3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Y3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="Z3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AA3" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AB3" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AC3" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AD3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="AE3" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="AF3" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AG3" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="AH3" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="AI3" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="AJ3" t="s">
-        <v>68</v>
-      </c>
-      <c r="AL3" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="AM3" t="s">
+        <v>70</v>
+      </c>
+      <c r="AK3" t="s">
+        <v>70</v>
+      </c>
+      <c r="AM3" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="AN3" t="s">
+        <v>76</v>
+      </c>
+      <c r="AO3" s="4" t="s">
         <v>74</v>
-      </c>
-      <c r="AN3" s="4" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F4" t="s">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="G4" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="H4" t="s">
+        <v>45</v>
+      </c>
+      <c r="I4" t="s">
+        <v>78</v>
+      </c>
+      <c r="J4" t="s">
+        <v>47</v>
+      </c>
+      <c r="K4" t="s">
+        <v>79</v>
+      </c>
+      <c r="L4" t="s">
+        <v>49</v>
+      </c>
+      <c r="M4" t="s">
+        <v>50</v>
+      </c>
+      <c r="N4" t="s">
+        <v>80</v>
+      </c>
+      <c r="O4" t="s">
+        <v>52</v>
+      </c>
+      <c r="P4" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>81</v>
+      </c>
+      <c r="R4" t="s">
+        <v>55</v>
+      </c>
+      <c r="S4" t="s">
+        <v>56</v>
+      </c>
+      <c r="T4" t="s">
+        <v>82</v>
+      </c>
+      <c r="U4" t="s">
         <v>44</v>
       </c>
-      <c r="I4" t="s">
-        <v>45</v>
-      </c>
-      <c r="J4" t="s">
-        <v>46</v>
-      </c>
-      <c r="K4" t="s">
-        <v>47</v>
-      </c>
-      <c r="L4" t="s">
-        <v>48</v>
-      </c>
-      <c r="M4" t="s">
-        <v>49</v>
-      </c>
-      <c r="N4" t="s">
-        <v>50</v>
-      </c>
-      <c r="O4" t="s">
-        <v>51</v>
-      </c>
-      <c r="P4" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>53</v>
-      </c>
-      <c r="R4" t="s">
-        <v>54</v>
-      </c>
-      <c r="S4" t="s">
-        <v>55</v>
-      </c>
-      <c r="T4" t="s">
-        <v>56</v>
-      </c>
-      <c r="U4" t="s">
-        <v>43</v>
-      </c>
       <c r="V4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="W4" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="X4" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Y4" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="Z4" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AA4" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AB4" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AC4" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AD4" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="AE4" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="AF4" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AG4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="AH4" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="AI4" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="AJ4" t="s">
-        <v>68</v>
-      </c>
-      <c r="AL4" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="AM4" t="s">
+        <v>70</v>
+      </c>
+      <c r="AK4" t="s">
+        <v>70</v>
+      </c>
+      <c r="AM4" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="AN4" t="s">
+        <v>73</v>
+      </c>
+      <c r="AO4" s="6" t="s">
         <v>71</v>
-      </c>
-      <c r="AN4" s="6" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F5" t="s">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="G5" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="H5" t="s">
+        <v>45</v>
+      </c>
+      <c r="I5" t="s">
+        <v>78</v>
+      </c>
+      <c r="J5" t="s">
+        <v>47</v>
+      </c>
+      <c r="K5" t="s">
+        <v>79</v>
+      </c>
+      <c r="L5" t="s">
+        <v>49</v>
+      </c>
+      <c r="M5" t="s">
+        <v>50</v>
+      </c>
+      <c r="N5" t="s">
+        <v>80</v>
+      </c>
+      <c r="O5" t="s">
+        <v>52</v>
+      </c>
+      <c r="P5" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>81</v>
+      </c>
+      <c r="R5" t="s">
+        <v>55</v>
+      </c>
+      <c r="S5" t="s">
+        <v>56</v>
+      </c>
+      <c r="T5" t="s">
+        <v>82</v>
+      </c>
+      <c r="U5" t="s">
         <v>44</v>
       </c>
-      <c r="I5" t="s">
-        <v>45</v>
-      </c>
-      <c r="J5" t="s">
-        <v>46</v>
-      </c>
-      <c r="K5" t="s">
-        <v>47</v>
-      </c>
-      <c r="L5" t="s">
-        <v>48</v>
-      </c>
-      <c r="M5" t="s">
-        <v>49</v>
-      </c>
-      <c r="N5" t="s">
-        <v>50</v>
-      </c>
-      <c r="O5" t="s">
-        <v>51</v>
-      </c>
-      <c r="P5" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>53</v>
-      </c>
-      <c r="R5" t="s">
-        <v>54</v>
-      </c>
-      <c r="S5" t="s">
-        <v>55</v>
-      </c>
-      <c r="T5" t="s">
-        <v>56</v>
-      </c>
-      <c r="U5" t="s">
-        <v>43</v>
-      </c>
       <c r="V5" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="W5" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="X5" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Y5" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="Z5" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AA5" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AB5" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AC5" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AD5" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="AE5" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="AF5" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AG5" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="AH5" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="AI5" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="AJ5" t="s">
-        <v>68</v>
-      </c>
-      <c r="AL5" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="AM5" t="s">
-        <v>78</v>
-      </c>
-      <c r="AN5" s="8" t="s">
-        <v>72</v>
+        <v>70</v>
+      </c>
+      <c r="AK5" t="s">
+        <v>70</v>
+      </c>
+      <c r="AM5" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="AN5" t="s">
+        <v>85</v>
+      </c>
+      <c r="AO5" s="8" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B6" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D6" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E6" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F6" t="s">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="G6" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="H6" t="s">
+        <v>45</v>
+      </c>
+      <c r="I6" t="s">
+        <v>86</v>
+      </c>
+      <c r="J6" t="s">
+        <v>47</v>
+      </c>
+      <c r="K6" t="s">
+        <v>79</v>
+      </c>
+      <c r="L6" t="s">
+        <v>49</v>
+      </c>
+      <c r="M6" t="s">
+        <v>50</v>
+      </c>
+      <c r="N6" t="s">
+        <v>87</v>
+      </c>
+      <c r="O6" t="s">
+        <v>52</v>
+      </c>
+      <c r="P6" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>88</v>
+      </c>
+      <c r="R6" t="s">
+        <v>55</v>
+      </c>
+      <c r="S6" t="s">
+        <v>56</v>
+      </c>
+      <c r="T6" t="s">
+        <v>89</v>
+      </c>
+      <c r="U6" t="s">
         <v>44</v>
       </c>
-      <c r="I6" t="s">
-        <v>79</v>
-      </c>
-      <c r="J6" t="s">
-        <v>46</v>
-      </c>
-      <c r="K6" t="s">
-        <v>47</v>
-      </c>
-      <c r="L6" t="s">
-        <v>48</v>
-      </c>
-      <c r="M6" t="s">
-        <v>49</v>
-      </c>
-      <c r="N6" t="s">
-        <v>50</v>
-      </c>
-      <c r="O6" t="s">
-        <v>51</v>
-      </c>
-      <c r="P6" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>53</v>
-      </c>
-      <c r="R6" t="s">
-        <v>54</v>
-      </c>
-      <c r="S6" t="s">
-        <v>55</v>
-      </c>
-      <c r="T6" t="s">
-        <v>80</v>
-      </c>
-      <c r="U6" t="s">
-        <v>43</v>
-      </c>
       <c r="V6" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="W6" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="X6" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="Y6" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="Z6" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AA6" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AB6" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AC6" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AD6" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="AE6" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="AF6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AG6" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="AH6" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="AI6" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="AJ6" t="s">
-        <v>68</v>
-      </c>
-      <c r="AL6" s="11" t="s">
-        <v>82</v>
-      </c>
-      <c r="AM6" t="s">
+        <v>70</v>
+      </c>
+      <c r="AK6" t="s">
+        <v>70</v>
+      </c>
+      <c r="AM6" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="AN6" t="s">
+        <v>73</v>
+      </c>
+      <c r="AO6" s="10" t="s">
         <v>71</v>
-      </c>
-      <c r="AN6" s="10" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F7" t="s">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="G7" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="H7" t="s">
+        <v>45</v>
+      </c>
+      <c r="I7" t="s">
+        <v>86</v>
+      </c>
+      <c r="J7" t="s">
+        <v>47</v>
+      </c>
+      <c r="K7" t="s">
+        <v>79</v>
+      </c>
+      <c r="L7" t="s">
+        <v>49</v>
+      </c>
+      <c r="M7" t="s">
+        <v>50</v>
+      </c>
+      <c r="N7" t="s">
+        <v>87</v>
+      </c>
+      <c r="O7" t="s">
+        <v>52</v>
+      </c>
+      <c r="P7" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>88</v>
+      </c>
+      <c r="R7" t="s">
+        <v>55</v>
+      </c>
+      <c r="S7" t="s">
+        <v>56</v>
+      </c>
+      <c r="T7" t="s">
+        <v>89</v>
+      </c>
+      <c r="U7" t="s">
         <v>44</v>
       </c>
-      <c r="I7" t="s">
-        <v>79</v>
-      </c>
-      <c r="J7" t="s">
-        <v>46</v>
-      </c>
-      <c r="K7" t="s">
-        <v>47</v>
-      </c>
-      <c r="L7" t="s">
-        <v>48</v>
-      </c>
-      <c r="M7" t="s">
-        <v>49</v>
-      </c>
-      <c r="N7" t="s">
-        <v>50</v>
-      </c>
-      <c r="O7" t="s">
-        <v>51</v>
-      </c>
-      <c r="P7" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>53</v>
-      </c>
-      <c r="R7" t="s">
-        <v>54</v>
-      </c>
-      <c r="S7" t="s">
-        <v>55</v>
-      </c>
-      <c r="T7" t="s">
-        <v>80</v>
-      </c>
-      <c r="U7" t="s">
-        <v>43</v>
-      </c>
       <c r="V7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="W7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="X7" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="Y7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="Z7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AA7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AB7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AC7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AD7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="AE7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="AF7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AG7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="AH7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="AI7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="AJ7" t="s">
-        <v>68</v>
-      </c>
-      <c r="AL7" s="13" t="s">
-        <v>83</v>
-      </c>
-      <c r="AM7" t="s">
+        <v>70</v>
+      </c>
+      <c r="AK7" t="s">
+        <v>70</v>
+      </c>
+      <c r="AM7" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="AN7" t="s">
+        <v>85</v>
+      </c>
+      <c r="AO7" s="12" t="s">
         <v>74</v>
-      </c>
-      <c r="AN7" s="12" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B8" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C8" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D8" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E8" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F8" t="s">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="G8" t="s">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="H8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I8" t="s">
-        <v>79</v>
+        <v>92</v>
       </c>
       <c r="J8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="L8" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="M8" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="N8" t="s">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="O8" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="P8" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="Q8" t="s">
-        <v>53</v>
+        <v>88</v>
       </c>
       <c r="R8" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S8" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T8" t="s">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="U8" t="s">
-        <v>43</v>
+        <v>94</v>
       </c>
       <c r="V8" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="W8" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="X8" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="Y8" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="Z8" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AA8" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AB8" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AC8" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AD8" t="s">
-        <v>84</v>
+        <v>66</v>
       </c>
       <c r="AE8" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="AF8" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AG8" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="AH8" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="AI8" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="AJ8" t="s">
-        <v>68</v>
-      </c>
-      <c r="AL8" s="15" t="s">
-        <v>85</v>
-      </c>
-      <c r="AM8" t="s">
+        <v>70</v>
+      </c>
+      <c r="AK8" t="s">
+        <v>70</v>
+      </c>
+      <c r="AM8" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="AN8" t="s">
+        <v>73</v>
+      </c>
+      <c r="AO8" s="14" t="s">
         <v>71</v>
-      </c>
-      <c r="AN8" s="14" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B9" t="s">
+        <v>40</v>
+      </c>
+      <c r="C9" t="s">
+        <v>41</v>
+      </c>
+      <c r="D9" t="s">
+        <v>42</v>
+      </c>
+      <c r="E9" t="s">
+        <v>43</v>
+      </c>
+      <c r="F9" t="s">
+        <v>77</v>
+      </c>
+      <c r="G9" t="s">
+        <v>77</v>
+      </c>
+      <c r="H9" t="s">
+        <v>45</v>
+      </c>
+      <c r="I9" t="s">
+        <v>92</v>
+      </c>
+      <c r="J9" t="s">
+        <v>47</v>
+      </c>
+      <c r="K9" t="s">
+        <v>48</v>
+      </c>
+      <c r="L9" t="s">
+        <v>49</v>
+      </c>
+      <c r="M9" t="s">
+        <v>50</v>
+      </c>
+      <c r="N9" t="s">
+        <v>80</v>
+      </c>
+      <c r="O9" t="s">
+        <v>52</v>
+      </c>
+      <c r="P9" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>88</v>
+      </c>
+      <c r="R9" t="s">
+        <v>55</v>
+      </c>
+      <c r="S9" t="s">
+        <v>56</v>
+      </c>
+      <c r="T9" t="s">
+        <v>93</v>
+      </c>
+      <c r="U9" t="s">
+        <v>94</v>
+      </c>
+      <c r="V9" t="s">
+        <v>58</v>
+      </c>
+      <c r="W9" t="s">
+        <v>59</v>
+      </c>
+      <c r="X9" t="s">
+        <v>60</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>61</v>
+      </c>
+      <c r="Z9" t="s">
+        <v>62</v>
+      </c>
+      <c r="AA9" t="s">
+        <v>63</v>
+      </c>
+      <c r="AB9" t="s">
+        <v>64</v>
+      </c>
+      <c r="AC9" t="s">
+        <v>65</v>
+      </c>
+      <c r="AD9" t="s">
+        <v>66</v>
+      </c>
+      <c r="AE9" t="s">
+        <v>67</v>
+      </c>
+      <c r="AF9" t="s">
+        <v>68</v>
+      </c>
+      <c r="AG9" t="s">
+        <v>69</v>
+      </c>
+      <c r="AH9" t="s">
+        <v>70</v>
+      </c>
+      <c r="AI9" t="s">
+        <v>70</v>
+      </c>
+      <c r="AJ9" t="s">
+        <v>70</v>
+      </c>
+      <c r="AK9" t="s">
+        <v>70</v>
+      </c>
+      <c r="AM9" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="AN9" t="s">
+        <v>85</v>
+      </c>
+      <c r="AO9" s="16" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
         <v>39</v>
       </c>
-      <c r="C9" t="s">
+      <c r="B10" t="s">
         <v>40</v>
       </c>
-      <c r="D9" t="s">
+      <c r="C10" t="s">
         <v>41</v>
       </c>
-      <c r="E9" t="s">
+      <c r="D10" t="s">
         <v>42</v>
       </c>
-      <c r="F9" t="s">
+      <c r="E10" t="s">
         <v>43</v>
       </c>
-      <c r="G9" t="s">
+      <c r="F10" t="s">
+        <v>44</v>
+      </c>
+      <c r="G10" t="s">
+        <v>44</v>
+      </c>
+      <c r="H10" t="s">
+        <v>45</v>
+      </c>
+      <c r="I10" t="s">
+        <v>46</v>
+      </c>
+      <c r="J10" t="s">
+        <v>47</v>
+      </c>
+      <c r="K10" t="s">
+        <v>79</v>
+      </c>
+      <c r="L10" t="s">
+        <v>49</v>
+      </c>
+      <c r="M10" t="s">
+        <v>50</v>
+      </c>
+      <c r="N10" t="s">
+        <v>51</v>
+      </c>
+      <c r="O10" t="s">
+        <v>52</v>
+      </c>
+      <c r="P10" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>54</v>
+      </c>
+      <c r="R10" t="s">
+        <v>55</v>
+      </c>
+      <c r="S10" t="s">
+        <v>56</v>
+      </c>
+      <c r="T10" t="s">
+        <v>57</v>
+      </c>
+      <c r="U10" t="s">
+        <v>44</v>
+      </c>
+      <c r="V10" t="s">
+        <v>58</v>
+      </c>
+      <c r="W10" t="s">
+        <v>59</v>
+      </c>
+      <c r="X10" t="s">
+        <v>60</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>61</v>
+      </c>
+      <c r="Z10" t="s">
+        <v>62</v>
+      </c>
+      <c r="AA10" t="s">
+        <v>63</v>
+      </c>
+      <c r="AB10" t="s">
+        <v>64</v>
+      </c>
+      <c r="AC10" t="s">
+        <v>65</v>
+      </c>
+      <c r="AD10" t="s">
+        <v>66</v>
+      </c>
+      <c r="AE10" t="s">
+        <v>67</v>
+      </c>
+      <c r="AF10" t="s">
+        <v>68</v>
+      </c>
+      <c r="AG10" t="s">
+        <v>69</v>
+      </c>
+      <c r="AH10" t="s">
+        <v>70</v>
+      </c>
+      <c r="AI10" t="s">
+        <v>70</v>
+      </c>
+      <c r="AJ10" t="s">
+        <v>70</v>
+      </c>
+      <c r="AK10" t="s">
+        <v>70</v>
+      </c>
+      <c r="AM10" s="19" t="s">
+        <v>97</v>
+      </c>
+      <c r="AN10" t="s">
+        <v>73</v>
+      </c>
+      <c r="AO10" s="18" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>39</v>
+      </c>
+      <c r="B11" t="s">
+        <v>40</v>
+      </c>
+      <c r="C11" t="s">
+        <v>41</v>
+      </c>
+      <c r="D11" t="s">
+        <v>42</v>
+      </c>
+      <c r="E11" t="s">
         <v>43</v>
       </c>
-      <c r="H9" t="s">
+      <c r="F11" t="s">
         <v>44</v>
       </c>
-      <c r="I9" t="s">
+      <c r="G11" t="s">
+        <v>44</v>
+      </c>
+      <c r="H11" t="s">
+        <v>45</v>
+      </c>
+      <c r="I11" t="s">
+        <v>46</v>
+      </c>
+      <c r="J11" t="s">
+        <v>47</v>
+      </c>
+      <c r="K11" t="s">
         <v>79</v>
       </c>
-      <c r="J9" t="s">
-        <v>46</v>
-      </c>
-      <c r="K9" t="s">
+      <c r="L11" t="s">
+        <v>49</v>
+      </c>
+      <c r="M11" t="s">
+        <v>50</v>
+      </c>
+      <c r="N11" t="s">
+        <v>51</v>
+      </c>
+      <c r="O11" t="s">
+        <v>52</v>
+      </c>
+      <c r="P11" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>54</v>
+      </c>
+      <c r="R11" t="s">
+        <v>55</v>
+      </c>
+      <c r="S11" t="s">
+        <v>56</v>
+      </c>
+      <c r="T11" t="s">
+        <v>57</v>
+      </c>
+      <c r="U11" t="s">
+        <v>44</v>
+      </c>
+      <c r="V11" t="s">
+        <v>58</v>
+      </c>
+      <c r="W11" t="s">
+        <v>59</v>
+      </c>
+      <c r="X11" t="s">
+        <v>60</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>61</v>
+      </c>
+      <c r="Z11" t="s">
+        <v>62</v>
+      </c>
+      <c r="AA11" t="s">
+        <v>63</v>
+      </c>
+      <c r="AB11" t="s">
+        <v>64</v>
+      </c>
+      <c r="AC11" t="s">
+        <v>65</v>
+      </c>
+      <c r="AD11" t="s">
+        <v>66</v>
+      </c>
+      <c r="AE11" t="s">
+        <v>67</v>
+      </c>
+      <c r="AF11" t="s">
+        <v>68</v>
+      </c>
+      <c r="AG11" t="s">
+        <v>69</v>
+      </c>
+      <c r="AH11" t="s">
+        <v>70</v>
+      </c>
+      <c r="AI11" t="s">
+        <v>70</v>
+      </c>
+      <c r="AJ11" t="s">
+        <v>70</v>
+      </c>
+      <c r="AK11" t="s">
+        <v>70</v>
+      </c>
+      <c r="AM11" s="21" t="s">
+        <v>98</v>
+      </c>
+      <c r="AN11" t="s">
+        <v>85</v>
+      </c>
+      <c r="AO11" s="20" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>39</v>
+      </c>
+      <c r="B12" t="s">
+        <v>40</v>
+      </c>
+      <c r="C12" t="s">
+        <v>41</v>
+      </c>
+      <c r="D12" t="s">
+        <v>42</v>
+      </c>
+      <c r="E12" t="s">
+        <v>43</v>
+      </c>
+      <c r="F12" t="s">
+        <v>77</v>
+      </c>
+      <c r="G12" t="s">
+        <v>77</v>
+      </c>
+      <c r="H12" t="s">
+        <v>45</v>
+      </c>
+      <c r="I12" t="s">
+        <v>99</v>
+      </c>
+      <c r="J12" t="s">
         <v>47</v>
       </c>
-      <c r="L9" t="s">
+      <c r="K12" t="s">
         <v>48</v>
       </c>
-      <c r="M9" t="s">
+      <c r="L12" t="s">
         <v>49</v>
       </c>
-      <c r="N9" t="s">
+      <c r="M12" t="s">
         <v>50</v>
       </c>
-      <c r="O9" t="s">
-        <v>51</v>
-      </c>
-      <c r="P9" t="s">
+      <c r="N12" t="s">
+        <v>80</v>
+      </c>
+      <c r="O12" t="s">
         <v>52</v>
       </c>
-      <c r="Q9" t="s">
+      <c r="P12" t="s">
         <v>53</v>
       </c>
-      <c r="R9" t="s">
+      <c r="Q12" t="s">
+        <v>81</v>
+      </c>
+      <c r="R12" t="s">
+        <v>55</v>
+      </c>
+      <c r="S12" t="s">
+        <v>56</v>
+      </c>
+      <c r="T12" t="s">
+        <v>93</v>
+      </c>
+      <c r="U12" t="s">
+        <v>94</v>
+      </c>
+      <c r="V12" t="s">
+        <v>58</v>
+      </c>
+      <c r="W12" t="s">
+        <v>59</v>
+      </c>
+      <c r="X12" t="s">
+        <v>60</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>61</v>
+      </c>
+      <c r="Z12" t="s">
+        <v>62</v>
+      </c>
+      <c r="AA12" t="s">
+        <v>63</v>
+      </c>
+      <c r="AB12" t="s">
+        <v>64</v>
+      </c>
+      <c r="AC12" t="s">
+        <v>65</v>
+      </c>
+      <c r="AD12" t="s">
+        <v>66</v>
+      </c>
+      <c r="AE12" t="s">
+        <v>67</v>
+      </c>
+      <c r="AF12" t="s">
+        <v>68</v>
+      </c>
+      <c r="AG12" t="s">
+        <v>69</v>
+      </c>
+      <c r="AH12" t="s">
+        <v>70</v>
+      </c>
+      <c r="AI12" t="s">
+        <v>70</v>
+      </c>
+      <c r="AJ12" t="s">
+        <v>70</v>
+      </c>
+      <c r="AK12" t="s">
+        <v>70</v>
+      </c>
+      <c r="AM12" s="23" t="s">
+        <v>100</v>
+      </c>
+      <c r="AN12" t="s">
+        <v>73</v>
+      </c>
+      <c r="AO12" s="22" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>39</v>
+      </c>
+      <c r="B13" t="s">
+        <v>40</v>
+      </c>
+      <c r="C13" t="s">
+        <v>41</v>
+      </c>
+      <c r="D13" t="s">
+        <v>42</v>
+      </c>
+      <c r="E13" t="s">
+        <v>43</v>
+      </c>
+      <c r="F13" t="s">
+        <v>77</v>
+      </c>
+      <c r="G13" t="s">
+        <v>77</v>
+      </c>
+      <c r="H13" t="s">
+        <v>45</v>
+      </c>
+      <c r="I13" t="s">
+        <v>99</v>
+      </c>
+      <c r="J13" t="s">
+        <v>47</v>
+      </c>
+      <c r="K13" t="s">
+        <v>48</v>
+      </c>
+      <c r="L13" t="s">
+        <v>49</v>
+      </c>
+      <c r="M13" t="s">
+        <v>50</v>
+      </c>
+      <c r="N13" t="s">
+        <v>80</v>
+      </c>
+      <c r="O13" t="s">
+        <v>52</v>
+      </c>
+      <c r="P13" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>81</v>
+      </c>
+      <c r="R13" t="s">
+        <v>55</v>
+      </c>
+      <c r="S13" t="s">
+        <v>56</v>
+      </c>
+      <c r="T13" t="s">
+        <v>93</v>
+      </c>
+      <c r="U13" t="s">
+        <v>94</v>
+      </c>
+      <c r="V13" t="s">
+        <v>58</v>
+      </c>
+      <c r="W13" t="s">
+        <v>59</v>
+      </c>
+      <c r="X13" t="s">
+        <v>60</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>61</v>
+      </c>
+      <c r="Z13" t="s">
+        <v>62</v>
+      </c>
+      <c r="AA13" t="s">
+        <v>63</v>
+      </c>
+      <c r="AB13" t="s">
+        <v>64</v>
+      </c>
+      <c r="AC13" t="s">
+        <v>65</v>
+      </c>
+      <c r="AD13" t="s">
+        <v>66</v>
+      </c>
+      <c r="AE13" t="s">
+        <v>67</v>
+      </c>
+      <c r="AF13" t="s">
+        <v>68</v>
+      </c>
+      <c r="AG13" t="s">
+        <v>69</v>
+      </c>
+      <c r="AH13" t="s">
+        <v>70</v>
+      </c>
+      <c r="AI13" t="s">
+        <v>70</v>
+      </c>
+      <c r="AJ13" t="s">
+        <v>70</v>
+      </c>
+      <c r="AK13" t="s">
+        <v>70</v>
+      </c>
+      <c r="AM13" s="25" t="s">
+        <v>101</v>
+      </c>
+      <c r="AN13" t="s">
+        <v>85</v>
+      </c>
+      <c r="AO13" s="24" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>39</v>
+      </c>
+      <c r="B14" t="s">
+        <v>40</v>
+      </c>
+      <c r="C14" t="s">
+        <v>41</v>
+      </c>
+      <c r="D14" t="s">
+        <v>42</v>
+      </c>
+      <c r="E14" t="s">
+        <v>43</v>
+      </c>
+      <c r="F14" t="s">
+        <v>44</v>
+      </c>
+      <c r="G14" t="s">
+        <v>44</v>
+      </c>
+      <c r="H14" t="s">
+        <v>45</v>
+      </c>
+      <c r="I14" t="s">
+        <v>102</v>
+      </c>
+      <c r="J14" t="s">
+        <v>47</v>
+      </c>
+      <c r="K14" t="s">
+        <v>79</v>
+      </c>
+      <c r="L14" t="s">
+        <v>49</v>
+      </c>
+      <c r="M14" t="s">
+        <v>50</v>
+      </c>
+      <c r="N14" t="s">
+        <v>80</v>
+      </c>
+      <c r="O14" t="s">
+        <v>52</v>
+      </c>
+      <c r="P14" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q14" t="s">
         <v>54</v>
       </c>
-      <c r="S9" t="s">
+      <c r="R14" t="s">
         <v>55</v>
       </c>
-      <c r="T9" t="s">
+      <c r="S14" t="s">
+        <v>56</v>
+      </c>
+      <c r="T14" t="s">
+        <v>57</v>
+      </c>
+      <c r="U14" t="s">
+        <v>44</v>
+      </c>
+      <c r="V14" t="s">
+        <v>58</v>
+      </c>
+      <c r="W14" t="s">
+        <v>59</v>
+      </c>
+      <c r="X14" t="s">
+        <v>103</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>61</v>
+      </c>
+      <c r="Z14" t="s">
+        <v>62</v>
+      </c>
+      <c r="AA14" t="s">
+        <v>63</v>
+      </c>
+      <c r="AB14" t="s">
+        <v>64</v>
+      </c>
+      <c r="AC14" t="s">
+        <v>65</v>
+      </c>
+      <c r="AD14" t="s">
+        <v>66</v>
+      </c>
+      <c r="AE14" t="s">
+        <v>67</v>
+      </c>
+      <c r="AF14" t="s">
+        <v>68</v>
+      </c>
+      <c r="AG14" t="s">
+        <v>104</v>
+      </c>
+      <c r="AH14" t="s">
+        <v>70</v>
+      </c>
+      <c r="AI14" t="s">
+        <v>70</v>
+      </c>
+      <c r="AJ14" t="s">
+        <v>70</v>
+      </c>
+      <c r="AK14" t="s">
+        <v>70</v>
+      </c>
+      <c r="AM14" s="27" t="s">
+        <v>105</v>
+      </c>
+      <c r="AN14" t="s">
+        <v>73</v>
+      </c>
+      <c r="AO14" s="26" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>39</v>
+      </c>
+      <c r="B15" t="s">
+        <v>40</v>
+      </c>
+      <c r="C15" t="s">
+        <v>41</v>
+      </c>
+      <c r="D15" t="s">
+        <v>42</v>
+      </c>
+      <c r="E15" t="s">
+        <v>43</v>
+      </c>
+      <c r="F15" t="s">
+        <v>44</v>
+      </c>
+      <c r="G15" t="s">
+        <v>44</v>
+      </c>
+      <c r="H15" t="s">
+        <v>45</v>
+      </c>
+      <c r="I15" t="s">
+        <v>102</v>
+      </c>
+      <c r="J15" t="s">
+        <v>47</v>
+      </c>
+      <c r="K15" t="s">
+        <v>79</v>
+      </c>
+      <c r="L15" t="s">
+        <v>49</v>
+      </c>
+      <c r="M15" t="s">
+        <v>50</v>
+      </c>
+      <c r="N15" t="s">
         <v>80</v>
       </c>
-      <c r="U9" t="s">
+      <c r="O15" t="s">
+        <v>52</v>
+      </c>
+      <c r="P15" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>54</v>
+      </c>
+      <c r="R15" t="s">
+        <v>55</v>
+      </c>
+      <c r="S15" t="s">
+        <v>56</v>
+      </c>
+      <c r="T15" t="s">
+        <v>57</v>
+      </c>
+      <c r="U15" t="s">
+        <v>44</v>
+      </c>
+      <c r="V15" t="s">
+        <v>58</v>
+      </c>
+      <c r="W15" t="s">
+        <v>59</v>
+      </c>
+      <c r="X15" t="s">
+        <v>103</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>61</v>
+      </c>
+      <c r="Z15" t="s">
+        <v>62</v>
+      </c>
+      <c r="AA15" t="s">
+        <v>63</v>
+      </c>
+      <c r="AB15" t="s">
+        <v>64</v>
+      </c>
+      <c r="AC15" t="s">
+        <v>65</v>
+      </c>
+      <c r="AD15" t="s">
+        <v>66</v>
+      </c>
+      <c r="AE15" t="s">
+        <v>67</v>
+      </c>
+      <c r="AF15" t="s">
+        <v>68</v>
+      </c>
+      <c r="AG15" t="s">
+        <v>104</v>
+      </c>
+      <c r="AH15" t="s">
+        <v>70</v>
+      </c>
+      <c r="AI15" t="s">
+        <v>70</v>
+      </c>
+      <c r="AJ15" t="s">
+        <v>70</v>
+      </c>
+      <c r="AK15" t="s">
+        <v>70</v>
+      </c>
+      <c r="AM15" s="29" t="s">
+        <v>106</v>
+      </c>
+      <c r="AN15" t="s">
+        <v>73</v>
+      </c>
+      <c r="AO15" s="28" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>39</v>
+      </c>
+      <c r="B16" t="s">
+        <v>40</v>
+      </c>
+      <c r="C16" t="s">
+        <v>41</v>
+      </c>
+      <c r="D16" t="s">
+        <v>42</v>
+      </c>
+      <c r="E16" t="s">
         <v>43</v>
       </c>
-      <c r="V9" t="s">
+      <c r="F16" t="s">
+        <v>44</v>
+      </c>
+      <c r="G16" t="s">
+        <v>44</v>
+      </c>
+      <c r="H16" t="s">
+        <v>45</v>
+      </c>
+      <c r="I16" t="s">
+        <v>102</v>
+      </c>
+      <c r="J16" t="s">
+        <v>47</v>
+      </c>
+      <c r="K16" t="s">
+        <v>79</v>
+      </c>
+      <c r="L16" t="s">
+        <v>49</v>
+      </c>
+      <c r="M16" t="s">
+        <v>50</v>
+      </c>
+      <c r="N16" t="s">
+        <v>80</v>
+      </c>
+      <c r="O16" t="s">
+        <v>52</v>
+      </c>
+      <c r="P16" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>54</v>
+      </c>
+      <c r="R16" t="s">
+        <v>55</v>
+      </c>
+      <c r="S16" t="s">
+        <v>56</v>
+      </c>
+      <c r="T16" t="s">
         <v>57</v>
       </c>
-      <c r="W9" t="s">
+      <c r="U16" t="s">
+        <v>44</v>
+      </c>
+      <c r="V16" t="s">
         <v>58</v>
       </c>
-      <c r="X9" t="s">
+      <c r="W16" t="s">
+        <v>59</v>
+      </c>
+      <c r="X16" t="s">
+        <v>103</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>61</v>
+      </c>
+      <c r="Z16" t="s">
+        <v>62</v>
+      </c>
+      <c r="AA16" t="s">
+        <v>63</v>
+      </c>
+      <c r="AB16" t="s">
+        <v>64</v>
+      </c>
+      <c r="AC16" t="s">
+        <v>65</v>
+      </c>
+      <c r="AD16" t="s">
+        <v>66</v>
+      </c>
+      <c r="AE16" t="s">
+        <v>67</v>
+      </c>
+      <c r="AF16" t="s">
+        <v>68</v>
+      </c>
+      <c r="AG16" t="s">
+        <v>104</v>
+      </c>
+      <c r="AH16" t="s">
+        <v>70</v>
+      </c>
+      <c r="AI16" t="s">
+        <v>70</v>
+      </c>
+      <c r="AJ16" t="s">
+        <v>70</v>
+      </c>
+      <c r="AK16" t="s">
+        <v>70</v>
+      </c>
+      <c r="AM16" s="31" t="s">
+        <v>107</v>
+      </c>
+      <c r="AN16" t="s">
+        <v>85</v>
+      </c>
+      <c r="AO16" s="30" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>39</v>
+      </c>
+      <c r="B17" t="s">
+        <v>40</v>
+      </c>
+      <c r="C17" t="s">
+        <v>41</v>
+      </c>
+      <c r="D17" t="s">
+        <v>42</v>
+      </c>
+      <c r="E17" t="s">
+        <v>43</v>
+      </c>
+      <c r="F17" t="s">
+        <v>77</v>
+      </c>
+      <c r="G17" t="s">
+        <v>77</v>
+      </c>
+      <c r="H17" t="s">
+        <v>45</v>
+      </c>
+      <c r="I17" t="s">
+        <v>108</v>
+      </c>
+      <c r="J17" t="s">
+        <v>47</v>
+      </c>
+      <c r="K17" t="s">
+        <v>79</v>
+      </c>
+      <c r="L17" t="s">
+        <v>49</v>
+      </c>
+      <c r="M17" t="s">
+        <v>50</v>
+      </c>
+      <c r="N17" t="s">
+        <v>80</v>
+      </c>
+      <c r="O17" t="s">
+        <v>52</v>
+      </c>
+      <c r="P17" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>88</v>
+      </c>
+      <c r="R17" t="s">
+        <v>55</v>
+      </c>
+      <c r="S17" t="s">
+        <v>56</v>
+      </c>
+      <c r="T17" t="s">
+        <v>57</v>
+      </c>
+      <c r="U17" t="s">
+        <v>44</v>
+      </c>
+      <c r="V17" t="s">
+        <v>58</v>
+      </c>
+      <c r="W17" t="s">
+        <v>59</v>
+      </c>
+      <c r="X17" t="s">
+        <v>103</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>61</v>
+      </c>
+      <c r="Z17" t="s">
+        <v>62</v>
+      </c>
+      <c r="AA17" t="s">
+        <v>63</v>
+      </c>
+      <c r="AB17" t="s">
+        <v>64</v>
+      </c>
+      <c r="AC17" t="s">
+        <v>65</v>
+      </c>
+      <c r="AD17" t="s">
+        <v>66</v>
+      </c>
+      <c r="AE17" t="s">
+        <v>67</v>
+      </c>
+      <c r="AF17" t="s">
+        <v>68</v>
+      </c>
+      <c r="AG17" t="s">
+        <v>109</v>
+      </c>
+      <c r="AH17" t="s">
+        <v>70</v>
+      </c>
+      <c r="AI17" t="s">
+        <v>70</v>
+      </c>
+      <c r="AJ17" t="s">
+        <v>70</v>
+      </c>
+      <c r="AK17" t="s">
+        <v>70</v>
+      </c>
+      <c r="AM17" s="33" t="s">
+        <v>110</v>
+      </c>
+      <c r="AN17" t="s">
+        <v>73</v>
+      </c>
+      <c r="AO17" s="32" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>39</v>
+      </c>
+      <c r="B18" t="s">
+        <v>40</v>
+      </c>
+      <c r="C18" t="s">
+        <v>41</v>
+      </c>
+      <c r="D18" t="s">
+        <v>42</v>
+      </c>
+      <c r="E18" t="s">
+        <v>43</v>
+      </c>
+      <c r="F18" t="s">
+        <v>77</v>
+      </c>
+      <c r="G18" t="s">
+        <v>77</v>
+      </c>
+      <c r="H18" t="s">
+        <v>45</v>
+      </c>
+      <c r="I18" t="s">
+        <v>108</v>
+      </c>
+      <c r="J18" t="s">
+        <v>47</v>
+      </c>
+      <c r="K18" t="s">
+        <v>79</v>
+      </c>
+      <c r="L18" t="s">
+        <v>49</v>
+      </c>
+      <c r="M18" t="s">
+        <v>50</v>
+      </c>
+      <c r="N18" t="s">
+        <v>80</v>
+      </c>
+      <c r="O18" t="s">
+        <v>52</v>
+      </c>
+      <c r="P18" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>88</v>
+      </c>
+      <c r="R18" t="s">
+        <v>55</v>
+      </c>
+      <c r="S18" t="s">
+        <v>56</v>
+      </c>
+      <c r="T18" t="s">
+        <v>57</v>
+      </c>
+      <c r="U18" t="s">
+        <v>44</v>
+      </c>
+      <c r="V18" t="s">
+        <v>58</v>
+      </c>
+      <c r="W18" t="s">
+        <v>59</v>
+      </c>
+      <c r="X18" t="s">
+        <v>103</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>61</v>
+      </c>
+      <c r="Z18" t="s">
+        <v>62</v>
+      </c>
+      <c r="AA18" t="s">
+        <v>63</v>
+      </c>
+      <c r="AB18" t="s">
+        <v>64</v>
+      </c>
+      <c r="AC18" t="s">
+        <v>65</v>
+      </c>
+      <c r="AD18" t="s">
+        <v>66</v>
+      </c>
+      <c r="AE18" t="s">
+        <v>67</v>
+      </c>
+      <c r="AF18" t="s">
+        <v>68</v>
+      </c>
+      <c r="AG18" t="s">
+        <v>109</v>
+      </c>
+      <c r="AH18" t="s">
+        <v>70</v>
+      </c>
+      <c r="AI18" t="s">
+        <v>70</v>
+      </c>
+      <c r="AJ18" t="s">
+        <v>70</v>
+      </c>
+      <c r="AK18" t="s">
+        <v>70</v>
+      </c>
+      <c r="AM18" s="35" t="s">
+        <v>111</v>
+      </c>
+      <c r="AN18" t="s">
+        <v>85</v>
+      </c>
+      <c r="AO18" s="34" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>39</v>
+      </c>
+      <c r="B19" t="s">
+        <v>40</v>
+      </c>
+      <c r="C19" t="s">
+        <v>41</v>
+      </c>
+      <c r="D19" t="s">
+        <v>42</v>
+      </c>
+      <c r="E19" t="s">
+        <v>43</v>
+      </c>
+      <c r="F19" t="s">
+        <v>77</v>
+      </c>
+      <c r="G19" t="s">
+        <v>53</v>
+      </c>
+      <c r="H19" t="s">
+        <v>45</v>
+      </c>
+      <c r="I19" t="s">
+        <v>112</v>
+      </c>
+      <c r="J19" t="s">
+        <v>47</v>
+      </c>
+      <c r="K19" t="s">
+        <v>79</v>
+      </c>
+      <c r="L19" t="s">
+        <v>49</v>
+      </c>
+      <c r="M19" t="s">
+        <v>50</v>
+      </c>
+      <c r="N19" t="s">
+        <v>80</v>
+      </c>
+      <c r="O19" t="s">
+        <v>52</v>
+      </c>
+      <c r="P19" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q19" t="s">
         <v>81</v>
       </c>
-      <c r="Y9" t="s">
-        <v>60</v>
-      </c>
-      <c r="Z9" t="s">
+      <c r="R19" t="s">
+        <v>55</v>
+      </c>
+      <c r="S19" t="s">
+        <v>56</v>
+      </c>
+      <c r="T19" t="s">
+        <v>57</v>
+      </c>
+      <c r="U19" t="s">
+        <v>94</v>
+      </c>
+      <c r="V19" t="s">
+        <v>58</v>
+      </c>
+      <c r="W19" t="s">
+        <v>59</v>
+      </c>
+      <c r="X19" t="s">
+        <v>103</v>
+      </c>
+      <c r="Y19" t="s">
         <v>61</v>
       </c>
-      <c r="AA9" t="s">
+      <c r="Z19" t="s">
         <v>62</v>
       </c>
-      <c r="AB9" t="s">
+      <c r="AA19" t="s">
         <v>63</v>
       </c>
-      <c r="AC9" t="s">
+      <c r="AB19" t="s">
         <v>64</v>
       </c>
-      <c r="AD9" t="s">
-        <v>84</v>
-      </c>
-      <c r="AE9" t="s">
+      <c r="AC19" t="s">
+        <v>65</v>
+      </c>
+      <c r="AD19" t="s">
         <v>66</v>
       </c>
-      <c r="AF9" t="s">
+      <c r="AE19" t="s">
         <v>67</v>
       </c>
-      <c r="AG9" t="s">
+      <c r="AF19" t="s">
         <v>68</v>
       </c>
-      <c r="AH9" t="s">
+      <c r="AG19" t="s">
+        <v>113</v>
+      </c>
+      <c r="AH19" t="s">
+        <v>70</v>
+      </c>
+      <c r="AI19" t="s">
+        <v>70</v>
+      </c>
+      <c r="AJ19" t="s">
+        <v>70</v>
+      </c>
+      <c r="AK19" t="s">
+        <v>70</v>
+      </c>
+      <c r="AM19" s="37" t="s">
+        <v>114</v>
+      </c>
+      <c r="AN19" t="s">
+        <v>73</v>
+      </c>
+      <c r="AO19" s="36" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>39</v>
+      </c>
+      <c r="B20" t="s">
+        <v>40</v>
+      </c>
+      <c r="C20" t="s">
+        <v>41</v>
+      </c>
+      <c r="D20" t="s">
+        <v>42</v>
+      </c>
+      <c r="E20" t="s">
+        <v>43</v>
+      </c>
+      <c r="F20" t="s">
+        <v>77</v>
+      </c>
+      <c r="G20" t="s">
+        <v>53</v>
+      </c>
+      <c r="H20" t="s">
+        <v>45</v>
+      </c>
+      <c r="I20" t="s">
+        <v>112</v>
+      </c>
+      <c r="J20" t="s">
+        <v>47</v>
+      </c>
+      <c r="K20" t="s">
+        <v>79</v>
+      </c>
+      <c r="L20" t="s">
+        <v>49</v>
+      </c>
+      <c r="M20" t="s">
+        <v>50</v>
+      </c>
+      <c r="N20" t="s">
+        <v>80</v>
+      </c>
+      <c r="O20" t="s">
+        <v>52</v>
+      </c>
+      <c r="P20" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>81</v>
+      </c>
+      <c r="R20" t="s">
+        <v>55</v>
+      </c>
+      <c r="S20" t="s">
+        <v>56</v>
+      </c>
+      <c r="T20" t="s">
+        <v>57</v>
+      </c>
+      <c r="U20" t="s">
+        <v>94</v>
+      </c>
+      <c r="V20" t="s">
+        <v>58</v>
+      </c>
+      <c r="W20" t="s">
+        <v>59</v>
+      </c>
+      <c r="X20" t="s">
+        <v>103</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>61</v>
+      </c>
+      <c r="Z20" t="s">
+        <v>62</v>
+      </c>
+      <c r="AA20" t="s">
+        <v>63</v>
+      </c>
+      <c r="AB20" t="s">
+        <v>64</v>
+      </c>
+      <c r="AC20" t="s">
+        <v>65</v>
+      </c>
+      <c r="AD20" t="s">
+        <v>66</v>
+      </c>
+      <c r="AE20" t="s">
+        <v>67</v>
+      </c>
+      <c r="AF20" t="s">
         <v>68</v>
       </c>
-      <c r="AI9" t="s">
-        <v>68</v>
-      </c>
-      <c r="AJ9" t="s">
-        <v>68</v>
-      </c>
-      <c r="AL9" t="s" s="17">
-        <v>86</v>
-      </c>
-      <c r="AM9" t="s">
-        <v>78</v>
-      </c>
-      <c r="AN9" t="s" s="16">
-        <v>72</v>
+      <c r="AG20" t="s">
+        <v>113</v>
+      </c>
+      <c r="AH20" t="s">
+        <v>70</v>
+      </c>
+      <c r="AI20" t="s">
+        <v>70</v>
+      </c>
+      <c r="AJ20" t="s">
+        <v>70</v>
+      </c>
+      <c r="AK20" t="s">
+        <v>70</v>
+      </c>
+      <c r="AM20" t="s" s="39">
+        <v>115</v>
+      </c>
+      <c r="AN20" t="s">
+        <v>85</v>
+      </c>
+      <c r="AO20" t="s" s="38">
+        <v>74</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="AL2"/>
-    <hyperlink r:id="rId2" ref="AL3"/>
-    <hyperlink r:id="rId3" ref="AL4"/>
-    <hyperlink r:id="rId4" ref="AL5"/>
-    <hyperlink r:id="rId5" ref="AL6"/>
-    <hyperlink r:id="rId6" ref="AL7"/>
-    <hyperlink r:id="rId7" ref="AL8"/>
-    <hyperlink ref="AL9" r:id="rId8"/>
+    <hyperlink r:id="rId1" ref="AM2"/>
+    <hyperlink r:id="rId2" ref="AM3"/>
+    <hyperlink r:id="rId3" ref="AM4"/>
+    <hyperlink r:id="rId4" ref="AM5"/>
+    <hyperlink r:id="rId5" ref="AM6"/>
+    <hyperlink r:id="rId6" ref="AM7"/>
+    <hyperlink r:id="rId7" ref="AM8"/>
+    <hyperlink r:id="rId8" ref="AM9"/>
+    <hyperlink r:id="rId9" ref="AM10"/>
+    <hyperlink r:id="rId10" ref="AM11"/>
+    <hyperlink r:id="rId11" ref="AM12"/>
+    <hyperlink r:id="rId12" ref="AM13"/>
+    <hyperlink r:id="rId13" ref="AM14"/>
+    <hyperlink r:id="rId14" ref="AM15"/>
+    <hyperlink r:id="rId15" ref="AM16"/>
+    <hyperlink r:id="rId16" ref="AM17"/>
+    <hyperlink r:id="rId17" ref="AM18"/>
+    <hyperlink r:id="rId18" ref="AM19"/>
+    <hyperlink ref="AM20" r:id="rId19"/>
   </hyperlinks>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
